--- a/outputs/PartialSettling/gain vs time and load.xlsx
+++ b/outputs/PartialSettling/gain vs time and load.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sony\Documents\sensor_scripts\Imager_SW\outputs\PartialSettling\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26423"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="700" yWindow="1220" windowWidth="23760" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>0pF</t>
   </si>
@@ -40,15 +38,34 @@
   <si>
     <t>time/ns</t>
   </si>
+  <si>
+    <t>slope</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -71,13 +88,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="17">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -189,16 +238,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -210,16 +259,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.63856960408684549</c:v>
+                  <c:v>0.638569604086845</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70972320794889987</c:v>
+                  <c:v>0.7097232079489</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76219512195121952</c:v>
+                  <c:v>0.762195121951219</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79744816586921852</c:v>
+                  <c:v>0.797448165869218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,16 +320,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -292,16 +341,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.63938618925831203</c:v>
+                  <c:v>0.639386189258312</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6958942240779401</c:v>
+                  <c:v>0.69589422407794</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7407407407407407</c:v>
+                  <c:v>0.740740740740741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.77399380804953555</c:v>
+                  <c:v>0.773993808049535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -353,16 +402,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -374,16 +423,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.65104166666666663</c:v>
+                  <c:v>0.651041666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69686411149825778</c:v>
+                  <c:v>0.696864111498258</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73152889539136801</c:v>
+                  <c:v>0.731528895391368</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76045627376425862</c:v>
+                  <c:v>0.760456273764259</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,16 +484,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,16 +505,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.6770480704129993</c:v>
+                  <c:v>0.677048070412999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.70671378091872794</c:v>
+                  <c:v>0.706713780918728</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.73099415204678353</c:v>
+                  <c:v>0.730994152046783</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.75187969924812026</c:v>
+                  <c:v>0.75187969924812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,14 +529,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239518272"/>
-        <c:axId val="239521408"/>
+        <c:axId val="2107919640"/>
+        <c:axId val="2107903384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239518272"/>
+        <c:axId val="2107919640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="40"/>
+          <c:min val="40.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -542,12 +591,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239521408"/>
+        <c:crossAx val="2107903384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239521408"/>
+        <c:axId val="2107903384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -605,7 +654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="239518272"/>
+        <c:crossAx val="2107919640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -782,13 +831,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -800,13 +849,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.4480286738351254</c:v>
+                  <c:v>0.448028673835125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55869999999999997</c:v>
+                  <c:v>0.5587</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65445026178010468</c:v>
+                  <c:v>0.654450261780105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -858,13 +907,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -876,13 +925,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.47961630695443647</c:v>
+                  <c:v>0.479616306954436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55865921787709494</c:v>
+                  <c:v>0.558659217877095</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63694267515923564</c:v>
+                  <c:v>0.636942675159236</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,13 +983,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -952,13 +1001,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.53390282968499736</c:v>
+                  <c:v>0.533902829684997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59311981020166071</c:v>
+                  <c:v>0.593119810201661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.64143681847338041</c:v>
+                  <c:v>0.64143681847338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1010,13 +1059,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,13 +1077,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.60864272671941566</c:v>
+                  <c:v>0.608642726719416</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63816209317166561</c:v>
+                  <c:v>0.638162093171666</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66979236436704614</c:v>
+                  <c:v>0.669792364367046</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,14 +1098,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="232577720"/>
-        <c:axId val="232576152"/>
+        <c:axId val="2108721640"/>
+        <c:axId val="2108715912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="232577720"/>
+        <c:axId val="2108721640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="15"/>
+          <c:min val="15.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1111,12 +1160,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232576152"/>
+        <c:crossAx val="2108715912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="232576152"/>
+        <c:axId val="2108715912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -1174,7 +1223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232577720"/>
+        <c:crossAx val="2108721640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1250,6 +1299,448 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Partial Settling vs Time with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> different Bitline Load</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0pF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.448028673835125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.654450261780105</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7097232079489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.762195121951219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.797448165869218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1pF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.479616306954436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.558659217877095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.636942675159236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69589422407794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.773993808049535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2pF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.533902829684997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.593119810201661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64143681847338</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.696864111498258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.731528895391368</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.760456273764259</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4pF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$37:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.608642726719416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.638162093171666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.669792364367046</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.706713780918728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.730994152046783</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75187969924812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2108248296"/>
+        <c:axId val="2108245128"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2108248296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Settling</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> Time (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108245128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2108245128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Gain</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0"/>
+                  <a:t> (% settled)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2108248296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.850925509311336"/>
+          <c:y val="0.0543884909123202"/>
+          <c:w val="0.0744713160854893"/>
+          <c:h val="0.241598958024984"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2371,16 +2862,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>511174</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:rowOff>55562</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>196849</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2402,15 +2893,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2424,6 +2915,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2475,7 +2996,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2510,7 +3031,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2687,7 +3208,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2695,15 +3216,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +3241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>20</v>
       </c>
@@ -2741,7 +3262,7 @@
         <v>0.60864272671941566</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>40</v>
       </c>
@@ -2760,8 +3281,24 @@
         <f>1/1.567</f>
         <v>0.63816209317166561</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G7" si="0">(B3-B2)/(A3-A2)</f>
+        <v>5.5335663082437285E-3</v>
+      </c>
+      <c r="H3">
+        <f>(C3-C2)/(A3-A2)</f>
+        <v>3.9521455461329234E-3</v>
+      </c>
+      <c r="I3">
+        <f>(D3-D2)/(A3-A2)</f>
+        <v>2.9608490258331678E-3</v>
+      </c>
+      <c r="J3">
+        <f>(E3-E2)/(A3-A2)</f>
+        <v>1.4759683226124975E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>60</v>
       </c>
@@ -2781,8 +3318,24 @@
         <f>1/1.493</f>
         <v>0.66979236436704614</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4.7875130890052357E-3</v>
+      </c>
+      <c r="H4">
+        <f>(C4-C3)/(A4-A3)</f>
+        <v>3.9141728641070347E-3</v>
+      </c>
+      <c r="I4">
+        <f>(D4-D3)/(A4-A3)</f>
+        <v>2.4158504135859847E-3</v>
+      </c>
+      <c r="J4">
+        <f>(E4-E3)/(A4-A3)</f>
+        <v>1.5815135597690266E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2798,8 +3351,23 @@
       <c r="E6" t="s">
         <v>3</v>
       </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>50</v>
       </c>
@@ -2820,7 +3388,7 @@
         <v>0.6770480704129993</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>75</v>
       </c>
@@ -2840,8 +3408,24 @@
         <f>1/1.415</f>
         <v>0.70671378091872794</v>
       </c>
+      <c r="G8">
+        <f>(B8-B7)/(A8-A7)</f>
+        <v>2.8461441544821754E-3</v>
+      </c>
+      <c r="H8">
+        <f>(C8-C7)/(A8-A7)</f>
+        <v>2.260321392785123E-3</v>
+      </c>
+      <c r="I8">
+        <f>(D8-D7)/(A8-A7)</f>
+        <v>1.832897793263646E-3</v>
+      </c>
+      <c r="J8">
+        <f>(E8-E7)/(A8-A7)</f>
+        <v>1.1866284202291454E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>100</v>
       </c>
@@ -2861,8 +3445,24 @@
         <f>1/1.368</f>
         <v>0.73099415204678353</v>
       </c>
+      <c r="G9">
+        <f t="shared" ref="G9:G10" si="1">(B9-B8)/(A9-A8)</f>
+        <v>2.0988765600927859E-3</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H10" si="2">(C9-C8)/(A9-A8)</f>
+        <v>1.7938606665120237E-3</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:I10" si="3">(D9-D8)/(A9-A8)</f>
+        <v>1.3865913557244091E-3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J10" si="4">(E9-E8)/(A9-A8)</f>
+        <v>9.7121484512222359E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>125</v>
       </c>
@@ -2882,9 +3482,173 @@
         <f>1/1.33</f>
         <v>0.75187969924812026</v>
       </c>
+      <c r="G10">
+        <f>(B10-B9)/(A10-A9)</f>
+        <v>1.4101217567199598E-3</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1.3301226923517939E-3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1.1570951349156244E-3</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>8.3542188805346912E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>20</v>
+      </c>
+      <c r="B37">
+        <f>1/2.232</f>
+        <v>0.4480286738351254</v>
+      </c>
+      <c r="C37">
+        <f>1/2.085</f>
+        <v>0.47961630695443647</v>
+      </c>
+      <c r="D37">
+        <f>1/1.873</f>
+        <v>0.53390282968499736</v>
+      </c>
+      <c r="E37">
+        <f>1/1.643</f>
+        <v>0.60864272671941566</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>0.55869999999999997</v>
+      </c>
+      <c r="C38">
+        <f>1/1.79</f>
+        <v>0.55865921787709494</v>
+      </c>
+      <c r="D38">
+        <f>1/1.686</f>
+        <v>0.59311981020166071</v>
+      </c>
+      <c r="E38">
+        <f>1/1.567</f>
+        <v>0.63816209317166561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>60</v>
+      </c>
+      <c r="B39">
+        <f>1/1.528</f>
+        <v>0.65445026178010468</v>
+      </c>
+      <c r="C39">
+        <f>1/1.57</f>
+        <v>0.63694267515923564</v>
+      </c>
+      <c r="D39">
+        <f>1/1.559</f>
+        <v>0.64143681847338041</v>
+      </c>
+      <c r="E39">
+        <f>1/1.493</f>
+        <v>0.66979236436704614</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <f>1/1.409</f>
+        <v>0.70972320794889987</v>
+      </c>
+      <c r="C40">
+        <f>1/1.437</f>
+        <v>0.6958942240779401</v>
+      </c>
+      <c r="D40">
+        <f>1/1.435</f>
+        <v>0.69686411149825778</v>
+      </c>
+      <c r="E40">
+        <f>1/1.415</f>
+        <v>0.70671378091872794</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>100</v>
+      </c>
+      <c r="B41">
+        <f>1/1.312</f>
+        <v>0.76219512195121952</v>
+      </c>
+      <c r="C41">
+        <f>1/1.35</f>
+        <v>0.7407407407407407</v>
+      </c>
+      <c r="D41">
+        <f>1/1.367</f>
+        <v>0.73152889539136801</v>
+      </c>
+      <c r="E41">
+        <f>1/1.368</f>
+        <v>0.73099415204678353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>125</v>
+      </c>
+      <c r="B42">
+        <f>1/1.254</f>
+        <v>0.79744816586921852</v>
+      </c>
+      <c r="C42">
+        <f>1/1.292</f>
+        <v>0.77399380804953555</v>
+      </c>
+      <c r="D42">
+        <f>1/1.315</f>
+        <v>0.76045627376425862</v>
+      </c>
+      <c r="E42">
+        <f>1/1.33</f>
+        <v>0.75187969924812026</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/outputs/PartialSettling/gain vs time and load.xlsx
+++ b/outputs/PartialSettling/gain vs time and load.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="23760" windowHeight="14320" activeTab="2"/>
+    <workbookView xWindow="1880" yWindow="0" windowWidth="23760" windowHeight="14320" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -371,16 +371,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="167">
@@ -944,11 +944,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2124055192"/>
-        <c:axId val="2123548024"/>
+        <c:axId val="-2085073080"/>
+        <c:axId val="-2085254952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2124055192"/>
+        <c:axId val="-2085073080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40.0"/>
@@ -1006,12 +1006,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2123548024"/>
+        <c:crossAx val="-2085254952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123548024"/>
+        <c:axId val="-2085254952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1069,7 +1069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2124055192"/>
+        <c:crossAx val="-2085073080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1548,11 +1548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117248488"/>
-        <c:axId val="-2083843656"/>
+        <c:axId val="-2081145656"/>
+        <c:axId val="-2081137896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117248488"/>
+        <c:axId val="-2081145656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,12 +1586,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083843656"/>
+        <c:crossAx val="-2081137896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2083843656"/>
+        <c:axId val="-2081137896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -1627,7 +1627,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117248488"/>
+        <c:crossAx val="-2081145656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1960,11 +1960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117322104"/>
-        <c:axId val="-2119281304"/>
+        <c:axId val="-2081101544"/>
+        <c:axId val="-2081094216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117322104"/>
+        <c:axId val="-2081101544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,12 +1993,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119281304"/>
+        <c:crossAx val="-2081094216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2119281304"/>
+        <c:axId val="-2081094216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -2034,7 +2034,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117322104"/>
+        <c:crossAx val="-2081101544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2367,11 +2367,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115512232"/>
-        <c:axId val="-2083728760"/>
+        <c:axId val="-2081270488"/>
+        <c:axId val="-2080716792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2115512232"/>
+        <c:axId val="-2081270488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,12 +2400,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083728760"/>
+        <c:crossAx val="-2080716792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2083728760"/>
+        <c:axId val="-2080716792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -2441,7 +2441,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115512232"/>
+        <c:crossAx val="-2081270488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2774,11 +2774,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2083964920"/>
-        <c:axId val="-2117093768"/>
+        <c:axId val="-2080856856"/>
+        <c:axId val="-2080849528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2083964920"/>
+        <c:axId val="-2080856856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,12 +2807,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117093768"/>
+        <c:crossAx val="-2080849528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117093768"/>
+        <c:axId val="-2080849528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -2848,7 +2848,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083964920"/>
+        <c:crossAx val="-2080856856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3181,11 +3181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2083690984"/>
-        <c:axId val="-2084165928"/>
+        <c:axId val="-2079993000"/>
+        <c:axId val="-2080699464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2083690984"/>
+        <c:axId val="-2079993000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,12 +3214,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084165928"/>
+        <c:crossAx val="-2080699464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2084165928"/>
+        <c:axId val="-2080699464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -3255,7 +3255,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083690984"/>
+        <c:crossAx val="-2079993000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3588,11 +3588,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2082661096"/>
-        <c:axId val="-2082786312"/>
+        <c:axId val="-2082957688"/>
+        <c:axId val="-2086700600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2082661096"/>
+        <c:axId val="-2082957688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,12 +3621,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082786312"/>
+        <c:crossAx val="-2086700600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2082786312"/>
+        <c:axId val="-2086700600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -3662,7 +3662,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082661096"/>
+        <c:crossAx val="-2082957688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4047,11 +4047,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127835048"/>
-        <c:axId val="2127829320"/>
+        <c:axId val="-2081242568"/>
+        <c:axId val="-2081236808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127835048"/>
+        <c:axId val="-2081242568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="15.0"/>
@@ -4109,12 +4109,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127829320"/>
+        <c:crossAx val="-2081236808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127829320"/>
+        <c:axId val="-2081236808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -4172,7 +4172,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2127835048"/>
+        <c:crossAx val="-2081242568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4585,11 +4585,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127788872"/>
-        <c:axId val="2127783064"/>
+        <c:axId val="-2081066696"/>
+        <c:axId val="-2081060872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127788872"/>
+        <c:axId val="-2081066696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4623,12 +4623,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127783064"/>
+        <c:crossAx val="-2081060872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127783064"/>
+        <c:axId val="-2081060872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -4664,7 +4664,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127788872"/>
+        <c:crossAx val="-2081066696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4987,11 +4987,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128461608"/>
-        <c:axId val="2125848856"/>
+        <c:axId val="-2080937368"/>
+        <c:axId val="2087729640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128461608"/>
+        <c:axId val="-2080937368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -5032,12 +5032,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125848856"/>
+        <c:crossAx val="2087729640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125848856"/>
+        <c:axId val="2087729640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -5078,7 +5078,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128461608"/>
+        <c:crossAx val="-2080937368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5184,7 +5184,7 @@
                   <c:v>0.45637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.41377</c:v>
+                  <c:v>0.46774</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.40091</c:v>
@@ -5392,11 +5392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117338168"/>
-        <c:axId val="-2117229416"/>
+        <c:axId val="2125626808"/>
+        <c:axId val="-2079935896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117338168"/>
+        <c:axId val="2125626808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -5427,12 +5427,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117229416"/>
+        <c:crossAx val="-2079935896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117229416"/>
+        <c:axId val="-2079935896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -5468,7 +5468,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117338168"/>
+        <c:crossAx val="2125626808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5782,11 +5782,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116090216"/>
-        <c:axId val="-2118859352"/>
+        <c:axId val="-2080907416"/>
+        <c:axId val="-2080961480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116090216"/>
+        <c:axId val="-2080907416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -5817,12 +5817,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118859352"/>
+        <c:crossAx val="-2080961480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118859352"/>
+        <c:axId val="-2080961480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -5858,7 +5858,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116090216"/>
+        <c:crossAx val="-2080907416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6278,11 +6278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2116400600"/>
-        <c:axId val="-2088199352"/>
+        <c:axId val="-2081258568"/>
+        <c:axId val="-2080997176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2116400600"/>
+        <c:axId val="-2081258568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6316,12 +6316,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088199352"/>
+        <c:crossAx val="-2080997176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088199352"/>
+        <c:axId val="-2080997176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -6357,7 +6357,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116400600"/>
+        <c:crossAx val="-2081258568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6777,11 +6777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117289784"/>
-        <c:axId val="-2086357928"/>
+        <c:axId val="-2085227256"/>
+        <c:axId val="-2085058088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117289784"/>
+        <c:axId val="-2085227256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6815,12 +6815,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086357928"/>
+        <c:crossAx val="-2085058088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2086357928"/>
+        <c:axId val="-2085058088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -6856,7 +6856,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117289784"/>
+        <c:crossAx val="-2085227256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7276,11 +7276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085672312"/>
-        <c:axId val="-2115262552"/>
+        <c:axId val="-2081200712"/>
+        <c:axId val="-2081192984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085672312"/>
+        <c:axId val="-2081200712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,12 +7314,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115262552"/>
+        <c:crossAx val="-2081192984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2115262552"/>
+        <c:axId val="-2081192984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -7355,7 +7355,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085672312"/>
+        <c:crossAx val="-2081200712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9223,7 +9223,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9233,7 +9233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -9684,8 +9684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9775,21 +9775,21 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="I3">
-        <f>H3*F3</f>
+        <f t="shared" ref="I3:I22" si="0">H3*F3</f>
         <v>0.45636999999999994</v>
       </c>
       <c r="J3">
         <v>0.215</v>
       </c>
       <c r="K3" s="16">
-        <f>J3*F3</f>
+        <f t="shared" ref="K3:K22" si="1">J3*F3</f>
         <v>0.41752999999999996</v>
       </c>
       <c r="L3" s="18">
         <v>0.26</v>
       </c>
       <c r="M3" s="16">
-        <f>L3*F3</f>
+        <f t="shared" ref="M3:M22" si="2">L3*F3</f>
         <v>0.50492000000000004</v>
       </c>
     </row>
@@ -9801,28 +9801,28 @@
         <v>1.948</v>
       </c>
       <c r="G4" s="16">
-        <f t="shared" ref="G4:G22" si="0">1/F4</f>
+        <f t="shared" ref="G4:G22" si="3">1/F4</f>
         <v>0.51334702258726905</v>
       </c>
       <c r="H4">
         <v>0.23499999999999999</v>
       </c>
       <c r="I4">
-        <f>H4*F4</f>
+        <f t="shared" si="0"/>
         <v>0.45777999999999996</v>
       </c>
       <c r="J4">
         <v>0.185</v>
       </c>
       <c r="K4" s="16">
-        <f>J4*F4</f>
+        <f t="shared" si="1"/>
         <v>0.36037999999999998</v>
       </c>
       <c r="L4" s="18">
         <v>0.26500000000000001</v>
       </c>
       <c r="M4" s="16">
-        <f>L4*F4</f>
+        <f t="shared" si="2"/>
         <v>0.51622000000000001</v>
       </c>
     </row>
@@ -9834,28 +9834,28 @@
         <v>1.893</v>
       </c>
       <c r="G5" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.52826201796090866</v>
       </c>
       <c r="H5">
         <v>0.22500000000000001</v>
       </c>
       <c r="I5">
-        <f>H5*F5</f>
+        <f t="shared" si="0"/>
         <v>0.425925</v>
       </c>
       <c r="J5">
         <v>0.255</v>
       </c>
       <c r="K5" s="16">
-        <f>J5*F5</f>
+        <f t="shared" si="1"/>
         <v>0.48271500000000001</v>
       </c>
       <c r="L5" s="18">
         <v>0.26</v>
       </c>
       <c r="M5" s="16">
-        <f>L5*F5</f>
+        <f t="shared" si="2"/>
         <v>0.49218000000000001</v>
       </c>
     </row>
@@ -9867,28 +9867,28 @@
         <v>1.762</v>
       </c>
       <c r="G6" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.56753688989784334</v>
       </c>
       <c r="H6">
         <v>0.23499999999999999</v>
       </c>
       <c r="I6">
-        <f>H6*F6</f>
+        <f t="shared" si="0"/>
         <v>0.41406999999999999</v>
       </c>
       <c r="J6">
         <v>0.28499999999999998</v>
       </c>
       <c r="K6" s="16">
-        <f>J6*F6</f>
+        <f t="shared" si="1"/>
         <v>0.50217000000000001</v>
       </c>
       <c r="L6" s="18">
         <v>0.27300000000000002</v>
       </c>
       <c r="M6" s="16">
-        <f>L6*F6</f>
+        <f t="shared" si="2"/>
         <v>0.48102600000000006</v>
       </c>
     </row>
@@ -9897,15 +9897,15 @@
         <v>0.95</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B11" si="1">1.8*A7</f>
+        <f t="shared" ref="B7:B11" si="4">1.8*A7</f>
         <v>1.71</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C11" si="2">3.3*A7</f>
+        <f t="shared" ref="C7:C11" si="5">3.3*A7</f>
         <v>3.1349999999999998</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="D7:D11" si="3">3.2*A7</f>
+        <f t="shared" ref="D7:D11" si="6">3.2*A7</f>
         <v>3.04</v>
       </c>
       <c r="E7" t="s">
@@ -9915,28 +9915,28 @@
         <v>1.7989999999999999</v>
       </c>
       <c r="G7" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.5558643690939411</v>
       </c>
       <c r="H7">
         <v>0.23</v>
       </c>
       <c r="I7">
-        <f>H7*F7</f>
+        <f t="shared" si="0"/>
         <v>0.41377000000000003</v>
       </c>
       <c r="J7">
         <v>0.26</v>
       </c>
       <c r="K7" s="16">
-        <f>J7*F7</f>
+        <f t="shared" si="1"/>
         <v>0.46773999999999999</v>
       </c>
       <c r="L7" s="18">
         <v>0.27500000000000002</v>
       </c>
       <c r="M7" s="16">
-        <f>L7*F7</f>
+        <f t="shared" si="2"/>
         <v>0.49472500000000003</v>
       </c>
     </row>
@@ -9948,28 +9948,28 @@
         <v>1.8009999999999999</v>
       </c>
       <c r="G8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.55524708495280406</v>
       </c>
       <c r="H8">
         <v>0.23</v>
       </c>
       <c r="I8">
-        <f>H8*F8</f>
+        <f t="shared" si="0"/>
         <v>0.41422999999999999</v>
       </c>
       <c r="J8">
         <v>0.24</v>
       </c>
       <c r="K8" s="16">
-        <f>J8*F8</f>
+        <f t="shared" si="1"/>
         <v>0.43223999999999996</v>
       </c>
       <c r="L8" s="18">
         <v>0.26500000000000001</v>
       </c>
       <c r="M8" s="16">
-        <f>L8*F8</f>
+        <f t="shared" si="2"/>
         <v>0.47726499999999999</v>
       </c>
     </row>
@@ -9981,28 +9981,28 @@
         <v>1.752</v>
       </c>
       <c r="G9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.57077625570776258</v>
       </c>
       <c r="H9">
         <v>0.23</v>
       </c>
       <c r="I9">
-        <f>H9*F9</f>
+        <f t="shared" si="0"/>
         <v>0.40296000000000004</v>
       </c>
       <c r="J9">
         <v>0.26500000000000001</v>
       </c>
       <c r="K9" s="16">
-        <f>J9*F9</f>
+        <f t="shared" si="1"/>
         <v>0.46428000000000003</v>
       </c>
       <c r="L9" s="18">
         <v>0.28000000000000003</v>
       </c>
       <c r="M9" s="16">
-        <f>L9*F9</f>
+        <f t="shared" si="2"/>
         <v>0.49056000000000005</v>
       </c>
     </row>
@@ -10014,28 +10014,28 @@
         <v>1.633</v>
       </c>
       <c r="G10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.61236987140232702</v>
       </c>
       <c r="H10">
         <v>0.24</v>
       </c>
       <c r="I10">
-        <f>H10*F10</f>
+        <f t="shared" si="0"/>
         <v>0.39191999999999999</v>
       </c>
       <c r="J10">
         <v>0.25</v>
       </c>
       <c r="K10" s="16">
-        <f>J10*F10</f>
+        <f t="shared" si="1"/>
         <v>0.40825</v>
       </c>
       <c r="L10" s="18">
         <v>0.28000000000000003</v>
       </c>
       <c r="M10" s="16">
-        <f>L10*F10</f>
+        <f t="shared" si="2"/>
         <v>0.45724000000000004</v>
       </c>
     </row>
@@ -10044,15 +10044,15 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.8</v>
       </c>
       <c r="C11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
       <c r="D11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3.2</v>
       </c>
       <c r="E11" t="s">
@@ -10062,28 +10062,28 @@
         <v>1.706</v>
       </c>
       <c r="G11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.58616647127784294</v>
       </c>
       <c r="H11">
         <v>0.23499999999999999</v>
       </c>
       <c r="I11">
-        <f>H11*F11</f>
+        <f t="shared" si="0"/>
         <v>0.40090999999999999</v>
       </c>
       <c r="J11">
         <v>0.25</v>
       </c>
       <c r="K11" s="16">
-        <f>J11*F11</f>
+        <f t="shared" si="1"/>
         <v>0.42649999999999999</v>
       </c>
       <c r="L11" s="18">
         <v>0.26500000000000001</v>
       </c>
       <c r="M11" s="16">
-        <f>L11*F11</f>
+        <f t="shared" si="2"/>
         <v>0.45208999999999999</v>
       </c>
     </row>
@@ -10095,28 +10095,28 @@
         <v>1.708</v>
       </c>
       <c r="G12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.58548009367681497</v>
       </c>
       <c r="H12">
         <v>0.23499999999999999</v>
       </c>
       <c r="I12">
-        <f>H12*F12</f>
+        <f t="shared" si="0"/>
         <v>0.40137999999999996</v>
       </c>
       <c r="J12">
         <v>0.23499999999999999</v>
       </c>
       <c r="K12" s="16">
-        <f>J12*F12</f>
+        <f t="shared" si="1"/>
         <v>0.40137999999999996</v>
       </c>
       <c r="L12" s="18">
         <v>0.26500000000000001</v>
       </c>
       <c r="M12" s="16">
-        <f>L12*F12</f>
+        <f t="shared" si="2"/>
         <v>0.45262000000000002</v>
       </c>
     </row>
@@ -10128,28 +10128,28 @@
         <v>1.6659999999999999</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.60024009603841544</v>
       </c>
       <c r="H13">
         <v>0.23499999999999999</v>
       </c>
       <c r="I13">
-        <f>H13*F13</f>
+        <f t="shared" si="0"/>
         <v>0.39150999999999997</v>
       </c>
       <c r="J13">
         <v>0.26</v>
       </c>
       <c r="K13" s="16">
-        <f>J13*F13</f>
+        <f t="shared" si="1"/>
         <v>0.43315999999999999</v>
       </c>
       <c r="L13" s="18">
         <v>0.26500000000000001</v>
       </c>
       <c r="M13" s="16">
-        <f>L13*F13</f>
+        <f t="shared" si="2"/>
         <v>0.44148999999999999</v>
       </c>
     </row>
@@ -10161,28 +10161,28 @@
         <v>1.5620000000000001</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.6402048655569782</v>
       </c>
       <c r="H14">
         <v>0.23499999999999999</v>
       </c>
       <c r="I14">
-        <f>H14*F14</f>
+        <f t="shared" si="0"/>
         <v>0.36707000000000001</v>
       </c>
       <c r="J14">
         <v>0.255</v>
       </c>
       <c r="K14" s="16">
-        <f>J14*F14</f>
+        <f t="shared" si="1"/>
         <v>0.39831</v>
       </c>
       <c r="L14" s="18">
         <v>0.28499999999999998</v>
       </c>
       <c r="M14" s="16">
-        <f>L14*F14</f>
+        <f t="shared" si="2"/>
         <v>0.44516999999999995</v>
       </c>
     </row>
@@ -10209,28 +10209,28 @@
         <v>1.6439999999999999</v>
       </c>
       <c r="G15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.6082725060827251</v>
       </c>
       <c r="H15">
         <v>0.24</v>
       </c>
       <c r="I15">
-        <f>H15*F15</f>
+        <f t="shared" si="0"/>
         <v>0.39455999999999997</v>
       </c>
       <c r="J15">
         <v>0.26</v>
       </c>
       <c r="K15" s="16">
-        <f>J15*F15</f>
+        <f t="shared" si="1"/>
         <v>0.42743999999999999</v>
       </c>
       <c r="L15" s="18">
         <v>0.26</v>
       </c>
       <c r="M15" s="16">
-        <f>L15*F15</f>
+        <f t="shared" si="2"/>
         <v>0.42743999999999999</v>
       </c>
     </row>
@@ -10242,28 +10242,28 @@
         <v>1.649</v>
       </c>
       <c r="G16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.60642813826561548</v>
       </c>
       <c r="H16">
         <v>0.23</v>
       </c>
       <c r="I16">
-        <f>H16*F16</f>
+        <f t="shared" si="0"/>
         <v>0.37927</v>
       </c>
       <c r="J16">
         <v>0.245</v>
       </c>
       <c r="K16" s="16">
-        <f>J16*F16</f>
+        <f t="shared" si="1"/>
         <v>0.404005</v>
       </c>
       <c r="L16" s="18">
         <v>0.26</v>
       </c>
       <c r="M16" s="16">
-        <f>L16*F16</f>
+        <f t="shared" si="2"/>
         <v>0.42874000000000001</v>
       </c>
     </row>
@@ -10275,28 +10275,28 @@
         <v>1.6160000000000001</v>
       </c>
       <c r="G17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.61881188118811881</v>
       </c>
       <c r="H17">
         <v>0.23499999999999999</v>
       </c>
       <c r="I17">
-        <f>H17*F17</f>
+        <f t="shared" si="0"/>
         <v>0.37975999999999999</v>
       </c>
       <c r="J17">
         <v>0.26</v>
       </c>
       <c r="K17" s="16">
-        <f>J17*F17</f>
+        <f t="shared" si="1"/>
         <v>0.42016000000000003</v>
       </c>
       <c r="L17" s="18">
         <v>0.26</v>
       </c>
       <c r="M17" s="16">
-        <f>L17*F17</f>
+        <f t="shared" si="2"/>
         <v>0.42016000000000003</v>
       </c>
     </row>
@@ -10308,28 +10308,28 @@
         <v>1.524</v>
       </c>
       <c r="G18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.65616797900262469</v>
       </c>
       <c r="H18">
         <v>0.24</v>
       </c>
       <c r="I18">
-        <f>H18*F18</f>
+        <f t="shared" si="0"/>
         <v>0.36575999999999997</v>
       </c>
       <c r="J18">
         <v>0.25</v>
       </c>
       <c r="K18" s="16">
-        <f>J18*F18</f>
+        <f t="shared" si="1"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="L18" s="18">
         <v>0.24</v>
       </c>
       <c r="M18" s="16">
-        <f>L18*F18</f>
+        <f t="shared" si="2"/>
         <v>0.36575999999999997</v>
       </c>
     </row>
@@ -10356,28 +10356,28 @@
         <v>1.5980000000000001</v>
       </c>
       <c r="G19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.62578222778473092</v>
       </c>
       <c r="H19">
         <v>0.23</v>
       </c>
       <c r="I19">
-        <f>H19*F19</f>
+        <f t="shared" si="0"/>
         <v>0.36754000000000003</v>
       </c>
       <c r="J19">
         <v>0.28000000000000003</v>
       </c>
       <c r="K19" s="16">
-        <f>J19*F19</f>
+        <f t="shared" si="1"/>
         <v>0.44744000000000006</v>
       </c>
       <c r="L19" s="18">
         <v>0.26</v>
       </c>
       <c r="M19" s="16">
-        <f>L19*F19</f>
+        <f t="shared" si="2"/>
         <v>0.41548000000000002</v>
       </c>
     </row>
@@ -10389,28 +10389,28 @@
         <v>1.607</v>
       </c>
       <c r="G20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.62227753578095835</v>
       </c>
       <c r="H20">
         <v>0.22500000000000001</v>
       </c>
       <c r="I20">
-        <f>H20*F20</f>
+        <f t="shared" si="0"/>
         <v>0.36157499999999998</v>
       </c>
       <c r="J20">
         <v>0.26</v>
       </c>
       <c r="K20" s="16">
-        <f>J20*F20</f>
+        <f t="shared" si="1"/>
         <v>0.41782000000000002</v>
       </c>
       <c r="L20" s="18">
         <v>0.24</v>
       </c>
       <c r="M20" s="16">
-        <f>L20*F20</f>
+        <f t="shared" si="2"/>
         <v>0.38567999999999997</v>
       </c>
     </row>
@@ -10422,28 +10422,28 @@
         <v>1.58</v>
       </c>
       <c r="G21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.63291139240506322</v>
       </c>
       <c r="H21">
         <v>0.24</v>
       </c>
       <c r="I21">
-        <f>H21*F21</f>
+        <f t="shared" si="0"/>
         <v>0.37919999999999998</v>
       </c>
       <c r="J21">
         <v>0.26</v>
       </c>
       <c r="K21" s="16">
-        <f>J21*F21</f>
+        <f t="shared" si="1"/>
         <v>0.41080000000000005</v>
       </c>
       <c r="L21" s="18">
         <v>0.22</v>
       </c>
       <c r="M21" s="16">
-        <f>L21*F21</f>
+        <f t="shared" si="2"/>
         <v>0.34760000000000002</v>
       </c>
     </row>
@@ -10455,28 +10455,28 @@
         <v>1.498</v>
       </c>
       <c r="G22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.66755674232309747</v>
       </c>
       <c r="H22">
         <v>0.245</v>
       </c>
       <c r="I22">
-        <f>H22*F22</f>
+        <f t="shared" si="0"/>
         <v>0.36701</v>
       </c>
       <c r="J22">
         <v>0.24</v>
       </c>
       <c r="K22" s="16">
-        <f>J22*F22</f>
+        <f t="shared" si="1"/>
         <v>0.35952000000000001</v>
       </c>
       <c r="L22" s="18">
         <v>0.245</v>
       </c>
       <c r="M22" s="16">
-        <f>L22*F22</f>
+        <f t="shared" si="2"/>
         <v>0.36701</v>
       </c>
     </row>
@@ -10551,21 +10551,21 @@
         <v>0.23499999999999999</v>
       </c>
       <c r="I26" s="3">
-        <f>H26*F26</f>
+        <f t="shared" ref="I26:I45" si="7">H26*F26</f>
         <v>0.45636999999999994</v>
       </c>
       <c r="J26" s="3">
         <v>0.215</v>
       </c>
       <c r="K26" s="8">
-        <f>J26*F26</f>
+        <f t="shared" ref="K26:K45" si="8">J26*F26</f>
         <v>0.41752999999999996</v>
       </c>
       <c r="L26" s="3">
         <v>0.26</v>
       </c>
       <c r="M26" s="8">
-        <f>L26*F26</f>
+        <f t="shared" ref="M26:M45" si="9">L26*F26</f>
         <v>0.50492000000000004</v>
       </c>
     </row>
@@ -10574,15 +10574,15 @@
         <v>0.95</v>
       </c>
       <c r="B27" s="3">
-        <f t="shared" ref="B27:B28" si="4">1.8*A27</f>
+        <f t="shared" ref="B27:B28" si="10">1.8*A27</f>
         <v>1.71</v>
       </c>
       <c r="C27" s="3">
-        <f t="shared" ref="C27:C28" si="5">3.3*A27</f>
+        <f t="shared" ref="C27:C28" si="11">3.3*A27</f>
         <v>3.1349999999999998</v>
       </c>
       <c r="D27" s="3">
-        <f t="shared" ref="D27:D28" si="6">3.2*A27</f>
+        <f t="shared" ref="D27:D28" si="12">3.2*A27</f>
         <v>3.04</v>
       </c>
       <c r="E27" s="3" t="s">
@@ -10592,28 +10592,28 @@
         <v>1.7989999999999999</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" ref="G27:G45" si="7">1/F27</f>
+        <f t="shared" ref="G27:G45" si="13">1/F27</f>
         <v>0.5558643690939411</v>
       </c>
       <c r="H27" s="3">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="I27" s="3">
-        <f>H27*F27</f>
-        <v>0.41377000000000003</v>
+        <f t="shared" si="7"/>
+        <v>0.46773999999999999</v>
       </c>
       <c r="J27" s="3">
         <v>0.26</v>
       </c>
       <c r="K27" s="8">
-        <f>J27*F27</f>
+        <f t="shared" si="8"/>
         <v>0.46773999999999999</v>
       </c>
       <c r="L27" s="3">
         <v>0.27500000000000002</v>
       </c>
       <c r="M27" s="8">
-        <f>L27*F27</f>
+        <f t="shared" si="9"/>
         <v>0.49472500000000003</v>
       </c>
     </row>
@@ -10622,15 +10622,15 @@
         <v>1</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>1.8</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>3.3</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>3.2</v>
       </c>
       <c r="E28" s="3" t="s">
@@ -10640,28 +10640,28 @@
         <v>1.706</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.58616647127784294</v>
       </c>
       <c r="H28" s="3">
         <v>0.23499999999999999</v>
       </c>
       <c r="I28" s="3">
-        <f>H28*F28</f>
+        <f t="shared" si="7"/>
         <v>0.40090999999999999</v>
       </c>
       <c r="J28" s="3">
         <v>0.25</v>
       </c>
       <c r="K28" s="8">
-        <f>J28*F28</f>
+        <f t="shared" si="8"/>
         <v>0.42649999999999999</v>
       </c>
       <c r="L28" s="3">
         <v>0.26500000000000001</v>
       </c>
       <c r="M28" s="8">
-        <f>L28*F28</f>
+        <f t="shared" si="9"/>
         <v>0.45208999999999999</v>
       </c>
     </row>
@@ -10688,28 +10688,28 @@
         <v>1.6439999999999999</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.6082725060827251</v>
       </c>
       <c r="H29" s="3">
         <v>0.24</v>
       </c>
       <c r="I29" s="3">
-        <f>H29*F29</f>
+        <f t="shared" si="7"/>
         <v>0.39455999999999997</v>
       </c>
       <c r="J29" s="3">
         <v>0.26</v>
       </c>
       <c r="K29" s="8">
-        <f>J29*F29</f>
+        <f t="shared" si="8"/>
         <v>0.42743999999999999</v>
       </c>
       <c r="L29" s="3">
         <v>0.26</v>
       </c>
       <c r="M29" s="8">
-        <f>L29*F29</f>
+        <f t="shared" si="9"/>
         <v>0.42743999999999999</v>
       </c>
     </row>
@@ -10736,28 +10736,28 @@
         <v>1.5980000000000001</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.62578222778473092</v>
       </c>
       <c r="H30" s="3">
         <v>0.23</v>
       </c>
       <c r="I30" s="3">
-        <f>H30*F30</f>
+        <f t="shared" si="7"/>
         <v>0.36754000000000003</v>
       </c>
       <c r="J30" s="3">
         <v>0.28000000000000003</v>
       </c>
       <c r="K30" s="8">
-        <f>J30*F30</f>
+        <f t="shared" si="8"/>
         <v>0.44744000000000006</v>
       </c>
       <c r="L30" s="3">
         <v>0.26</v>
       </c>
       <c r="M30" s="8">
-        <f>L30*F30</f>
+        <f t="shared" si="9"/>
         <v>0.41548000000000002</v>
       </c>
     </row>
@@ -10784,28 +10784,28 @@
         <v>1.948</v>
       </c>
       <c r="G31" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.51334702258726905</v>
       </c>
       <c r="H31" s="4">
         <v>0.23499999999999999</v>
       </c>
       <c r="I31" s="4">
-        <f>H31*F31</f>
+        <f t="shared" si="7"/>
         <v>0.45777999999999996</v>
       </c>
       <c r="J31" s="4">
         <v>0.185</v>
       </c>
       <c r="K31" s="10">
-        <f>J31*F31</f>
+        <f t="shared" si="8"/>
         <v>0.36037999999999998</v>
       </c>
       <c r="L31" s="4">
         <v>0.26500000000000001</v>
       </c>
       <c r="M31" s="10">
-        <f>L31*F31</f>
+        <f t="shared" si="9"/>
         <v>0.51622000000000001</v>
       </c>
       <c r="N31" s="4"/>
@@ -10815,15 +10815,15 @@
         <v>0.95</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" ref="B32:B33" si="8">1.8*A32</f>
+        <f t="shared" ref="B32:B33" si="14">1.8*A32</f>
         <v>1.71</v>
       </c>
       <c r="C32" s="4">
-        <f t="shared" ref="C32:C33" si="9">3.3*A32</f>
+        <f t="shared" ref="C32:C33" si="15">3.3*A32</f>
         <v>3.1349999999999998</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ref="D32:D33" si="10">3.2*A32</f>
+        <f t="shared" ref="D32:D33" si="16">3.2*A32</f>
         <v>3.04</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -10833,28 +10833,28 @@
         <v>1.8009999999999999</v>
       </c>
       <c r="G32" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.55524708495280406</v>
       </c>
       <c r="H32" s="4">
         <v>0.23</v>
       </c>
       <c r="I32" s="4">
-        <f>H32*F32</f>
+        <f t="shared" si="7"/>
         <v>0.41422999999999999</v>
       </c>
       <c r="J32" s="4">
         <v>0.24</v>
       </c>
       <c r="K32" s="10">
-        <f>J32*F32</f>
+        <f t="shared" si="8"/>
         <v>0.43223999999999996</v>
       </c>
       <c r="L32" s="4">
         <v>0.26500000000000001</v>
       </c>
       <c r="M32" s="10">
-        <f>L32*F32</f>
+        <f t="shared" si="9"/>
         <v>0.47726499999999999</v>
       </c>
       <c r="N32" s="4"/>
@@ -10864,15 +10864,15 @@
         <v>1</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.8</v>
       </c>
       <c r="C33" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.3</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>3.2</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -10882,28 +10882,28 @@
         <v>1.708</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.58548009367681497</v>
       </c>
       <c r="H33" s="4">
         <v>0.23499999999999999</v>
       </c>
       <c r="I33" s="4">
-        <f>H33*F33</f>
+        <f t="shared" si="7"/>
         <v>0.40137999999999996</v>
       </c>
       <c r="J33" s="4">
         <v>0.23499999999999999</v>
       </c>
       <c r="K33" s="10">
-        <f>J33*F33</f>
+        <f t="shared" si="8"/>
         <v>0.40137999999999996</v>
       </c>
       <c r="L33" s="4">
         <v>0.26500000000000001</v>
       </c>
       <c r="M33" s="10">
-        <f>L33*F33</f>
+        <f t="shared" si="9"/>
         <v>0.45262000000000002</v>
       </c>
       <c r="N33" s="4"/>
@@ -10931,28 +10931,28 @@
         <v>1.649</v>
       </c>
       <c r="G34" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.60642813826561548</v>
       </c>
       <c r="H34" s="4">
         <v>0.23</v>
       </c>
       <c r="I34" s="4">
-        <f>H34*F34</f>
+        <f t="shared" si="7"/>
         <v>0.37927</v>
       </c>
       <c r="J34" s="4">
         <v>0.245</v>
       </c>
       <c r="K34" s="10">
-        <f>J34*F34</f>
+        <f t="shared" si="8"/>
         <v>0.404005</v>
       </c>
       <c r="L34" s="4">
         <v>0.26</v>
       </c>
       <c r="M34" s="10">
-        <f>L34*F34</f>
+        <f t="shared" si="9"/>
         <v>0.42874000000000001</v>
       </c>
       <c r="N34" s="4"/>
@@ -10980,28 +10980,28 @@
         <v>1.607</v>
       </c>
       <c r="G35" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.62227753578095835</v>
       </c>
       <c r="H35" s="4">
         <v>0.22500000000000001</v>
       </c>
       <c r="I35" s="4">
-        <f>H35*F35</f>
+        <f t="shared" si="7"/>
         <v>0.36157499999999998</v>
       </c>
       <c r="J35" s="4">
         <v>0.26</v>
       </c>
       <c r="K35" s="10">
-        <f>J35*F35</f>
+        <f t="shared" si="8"/>
         <v>0.41782000000000002</v>
       </c>
       <c r="L35" s="4">
         <v>0.24</v>
       </c>
       <c r="M35" s="10">
-        <f>L35*F35</f>
+        <f t="shared" si="9"/>
         <v>0.38567999999999997</v>
       </c>
       <c r="N35" s="4"/>
@@ -11029,28 +11029,28 @@
         <v>1.893</v>
       </c>
       <c r="G36" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.52826201796090866</v>
       </c>
       <c r="H36" s="6">
         <v>0.22500000000000001</v>
       </c>
       <c r="I36" s="6">
-        <f>H36*F36</f>
+        <f t="shared" si="7"/>
         <v>0.425925</v>
       </c>
       <c r="J36" s="6">
         <v>0.255</v>
       </c>
       <c r="K36" s="17">
-        <f>J36*F36</f>
+        <f t="shared" si="8"/>
         <v>0.48271500000000001</v>
       </c>
       <c r="L36" s="6">
         <v>0.26</v>
       </c>
       <c r="M36" s="17">
-        <f>L36*F36</f>
+        <f t="shared" si="9"/>
         <v>0.49218000000000001</v>
       </c>
     </row>
@@ -11059,15 +11059,15 @@
         <v>0.95</v>
       </c>
       <c r="B37" s="6">
-        <f t="shared" ref="B37:B38" si="11">1.8*A37</f>
+        <f t="shared" ref="B37:B38" si="17">1.8*A37</f>
         <v>1.71</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" ref="C37:C38" si="12">3.3*A37</f>
+        <f t="shared" ref="C37:C38" si="18">3.3*A37</f>
         <v>3.1349999999999998</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" ref="D37:D38" si="13">3.2*A37</f>
+        <f t="shared" ref="D37:D38" si="19">3.2*A37</f>
         <v>3.04</v>
       </c>
       <c r="E37" s="6" t="s">
@@ -11077,28 +11077,28 @@
         <v>1.752</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.57077625570776258</v>
       </c>
       <c r="H37" s="6">
         <v>0.23</v>
       </c>
       <c r="I37" s="6">
-        <f>H37*F37</f>
+        <f t="shared" si="7"/>
         <v>0.40296000000000004</v>
       </c>
       <c r="J37" s="6">
         <v>0.26500000000000001</v>
       </c>
       <c r="K37" s="17">
-        <f>J37*F37</f>
+        <f t="shared" si="8"/>
         <v>0.46428000000000003</v>
       </c>
       <c r="L37" s="6">
         <v>0.28000000000000003</v>
       </c>
       <c r="M37" s="17">
-        <f>L37*F37</f>
+        <f t="shared" si="9"/>
         <v>0.49056000000000005</v>
       </c>
     </row>
@@ -11107,15 +11107,15 @@
         <v>1</v>
       </c>
       <c r="B38" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1.8</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3.3</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3.2</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -11125,28 +11125,28 @@
         <v>1.6659999999999999</v>
       </c>
       <c r="G38" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.60024009603841544</v>
       </c>
       <c r="H38" s="6">
         <v>0.23499999999999999</v>
       </c>
       <c r="I38" s="6">
-        <f>H38*F38</f>
+        <f t="shared" si="7"/>
         <v>0.39150999999999997</v>
       </c>
       <c r="J38" s="6">
         <v>0.26</v>
       </c>
       <c r="K38" s="17">
-        <f>J38*F38</f>
+        <f t="shared" si="8"/>
         <v>0.43315999999999999</v>
       </c>
       <c r="L38" s="6">
         <v>0.26500000000000001</v>
       </c>
       <c r="M38" s="17">
-        <f>L38*F38</f>
+        <f t="shared" si="9"/>
         <v>0.44148999999999999</v>
       </c>
     </row>
@@ -11173,28 +11173,28 @@
         <v>1.6160000000000001</v>
       </c>
       <c r="G39" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.61881188118811881</v>
       </c>
       <c r="H39" s="6">
         <v>0.23499999999999999</v>
       </c>
       <c r="I39" s="6">
-        <f>H39*F39</f>
+        <f t="shared" si="7"/>
         <v>0.37975999999999999</v>
       </c>
       <c r="J39" s="6">
         <v>0.26</v>
       </c>
       <c r="K39" s="17">
-        <f>J39*F39</f>
+        <f t="shared" si="8"/>
         <v>0.42016000000000003</v>
       </c>
       <c r="L39" s="6">
         <v>0.26</v>
       </c>
       <c r="M39" s="17">
-        <f>L39*F39</f>
+        <f t="shared" si="9"/>
         <v>0.42016000000000003</v>
       </c>
     </row>
@@ -11221,28 +11221,28 @@
         <v>1.58</v>
       </c>
       <c r="G40" s="17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.63291139240506322</v>
       </c>
       <c r="H40" s="6">
         <v>0.24</v>
       </c>
       <c r="I40" s="6">
-        <f>H40*F40</f>
+        <f t="shared" si="7"/>
         <v>0.37919999999999998</v>
       </c>
       <c r="J40" s="6">
         <v>0.26</v>
       </c>
       <c r="K40" s="17">
-        <f>J40*F40</f>
+        <f t="shared" si="8"/>
         <v>0.41080000000000005</v>
       </c>
       <c r="L40" s="6">
         <v>0.22</v>
       </c>
       <c r="M40" s="17">
-        <f>L40*F40</f>
+        <f t="shared" si="9"/>
         <v>0.34760000000000002</v>
       </c>
     </row>
@@ -11269,28 +11269,28 @@
         <v>1.762</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.56753688989784334</v>
       </c>
       <c r="H41" s="5">
         <v>0.23499999999999999</v>
       </c>
       <c r="I41" s="5">
-        <f>H41*F41</f>
+        <f t="shared" si="7"/>
         <v>0.41406999999999999</v>
       </c>
       <c r="J41" s="5">
         <v>0.28499999999999998</v>
       </c>
       <c r="K41" s="14">
-        <f>J41*F41</f>
+        <f t="shared" si="8"/>
         <v>0.50217000000000001</v>
       </c>
       <c r="L41" s="5">
         <v>0.27300000000000002</v>
       </c>
       <c r="M41" s="14">
-        <f>L41*F41</f>
+        <f t="shared" si="9"/>
         <v>0.48102600000000006</v>
       </c>
     </row>
@@ -11299,15 +11299,15 @@
         <v>0.95</v>
       </c>
       <c r="B42" s="5">
-        <f t="shared" ref="B42:B43" si="14">1.8*A42</f>
+        <f t="shared" ref="B42:B43" si="20">1.8*A42</f>
         <v>1.71</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" ref="C42:C43" si="15">3.3*A42</f>
+        <f t="shared" ref="C42:C43" si="21">3.3*A42</f>
         <v>3.1349999999999998</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" ref="D42:D43" si="16">3.2*A42</f>
+        <f t="shared" ref="D42:D43" si="22">3.2*A42</f>
         <v>3.04</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -11317,28 +11317,28 @@
         <v>1.633</v>
       </c>
       <c r="G42" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.61236987140232702</v>
       </c>
       <c r="H42" s="5">
         <v>0.24</v>
       </c>
       <c r="I42" s="5">
-        <f>H42*F42</f>
+        <f t="shared" si="7"/>
         <v>0.39191999999999999</v>
       </c>
       <c r="J42" s="5">
         <v>0.25</v>
       </c>
       <c r="K42" s="14">
-        <f>J42*F42</f>
+        <f t="shared" si="8"/>
         <v>0.40825</v>
       </c>
       <c r="L42" s="5">
         <v>0.28000000000000003</v>
       </c>
       <c r="M42" s="14">
-        <f>L42*F42</f>
+        <f t="shared" si="9"/>
         <v>0.45724000000000004</v>
       </c>
     </row>
@@ -11347,15 +11347,15 @@
         <v>1</v>
       </c>
       <c r="B43" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>1.8</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>3.3</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>3.2</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -11365,28 +11365,28 @@
         <v>1.5620000000000001</v>
       </c>
       <c r="G43" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.6402048655569782</v>
       </c>
       <c r="H43" s="5">
         <v>0.23499999999999999</v>
       </c>
       <c r="I43" s="5">
-        <f>H43*F43</f>
+        <f t="shared" si="7"/>
         <v>0.36707000000000001</v>
       </c>
       <c r="J43" s="5">
         <v>0.255</v>
       </c>
       <c r="K43" s="14">
-        <f>J43*F43</f>
+        <f t="shared" si="8"/>
         <v>0.39831</v>
       </c>
       <c r="L43" s="5">
         <v>0.28499999999999998</v>
       </c>
       <c r="M43" s="14">
-        <f>L43*F43</f>
+        <f t="shared" si="9"/>
         <v>0.44516999999999995</v>
       </c>
     </row>
@@ -11413,28 +11413,28 @@
         <v>1.524</v>
       </c>
       <c r="G44" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.65616797900262469</v>
       </c>
       <c r="H44" s="5">
         <v>0.24</v>
       </c>
       <c r="I44" s="5">
-        <f>H44*F44</f>
+        <f t="shared" si="7"/>
         <v>0.36575999999999997</v>
       </c>
       <c r="J44" s="5">
         <v>0.25</v>
       </c>
       <c r="K44" s="14">
-        <f>J44*F44</f>
+        <f t="shared" si="8"/>
         <v>0.38100000000000001</v>
       </c>
       <c r="L44" s="5">
         <v>0.24</v>
       </c>
       <c r="M44" s="14">
-        <f>L44*F44</f>
+        <f t="shared" si="9"/>
         <v>0.36575999999999997</v>
       </c>
     </row>
@@ -11461,28 +11461,28 @@
         <v>1.498</v>
       </c>
       <c r="G45" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>0.66755674232309747</v>
       </c>
       <c r="H45" s="5">
         <v>0.245</v>
       </c>
       <c r="I45" s="5">
-        <f>H45*F45</f>
+        <f t="shared" si="7"/>
         <v>0.36701</v>
       </c>
       <c r="J45" s="5">
         <v>0.24</v>
       </c>
       <c r="K45" s="14">
-        <f>J45*F45</f>
+        <f t="shared" si="8"/>
         <v>0.35952000000000001</v>
       </c>
       <c r="L45" s="5">
         <v>0.245</v>
       </c>
       <c r="M45" s="14">
-        <f>L45*F45</f>
+        <f t="shared" si="9"/>
         <v>0.36701</v>
       </c>
     </row>
@@ -11502,7 +11502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>

--- a/outputs/PartialSettling/gain vs time and load.xlsx
+++ b/outputs/PartialSettling/gain vs time and load.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26423"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="0" windowWidth="23760" windowHeight="14320" activeTab="1"/>
+    <workbookView xWindow="4160" yWindow="0" windowWidth="23760" windowHeight="16280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="40">
   <si>
     <t>0pF</t>
   </si>
@@ -85,6 +87,63 @@
   <si>
     <t>ns</t>
   </si>
+  <si>
+    <t>light readout</t>
+  </si>
+  <si>
+    <t>light step</t>
+  </si>
+  <si>
+    <t>weak 1204</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>input referred differential Total Error (Sigma)</t>
+  </si>
+  <si>
+    <t>1st Order Partial Settling Gain</t>
+  </si>
+  <si>
+    <t>ADC Noise</t>
+  </si>
+  <si>
+    <t>Readnoise</t>
+  </si>
+  <si>
+    <t>input referred Total Error (Sigma)</t>
+  </si>
+  <si>
+    <t>ADC input referred Noise</t>
+  </si>
+  <si>
+    <t>Input Referred Noise</t>
+  </si>
+  <si>
+    <t>p21 First Order fitting : input = 1.7046*output + 1.0357, output is normalized to [0,1]</t>
+  </si>
+  <si>
+    <t>p12 First Order fitting : input = 1.676*output + 1.044, output is normalized to [0,1]</t>
+  </si>
+  <si>
+    <t>1st Order Forward Gain</t>
+  </si>
+  <si>
+    <t>noise</t>
+  </si>
+  <si>
+    <t>signal slope</t>
+  </si>
+  <si>
+    <t>noise slope</t>
+  </si>
+  <si>
+    <t>noise square</t>
+  </si>
+  <si>
+    <t>strong 1204</t>
+  </si>
 </sst>
 </file>
 
@@ -93,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +230,54 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF8CB0D3"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +296,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="167">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -357,8 +464,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -382,8 +509,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="167">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -467,6 +610,16 @@
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -550,6 +703,16 @@
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -572,7 +735,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -944,11 +1106,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085073080"/>
-        <c:axId val="-2085254952"/>
+        <c:axId val="2144459704"/>
+        <c:axId val="2144465288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085073080"/>
+        <c:axId val="2144459704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="40.0"/>
@@ -1006,12 +1168,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085254952"/>
+        <c:crossAx val="2144465288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085254952"/>
+        <c:axId val="2144465288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.5"/>
@@ -1069,7 +1231,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085073080"/>
+        <c:crossAx val="2144459704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1083,7 +1245,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1548,11 +1709,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081145656"/>
-        <c:axId val="-2081137896"/>
+        <c:axId val="2144164696"/>
+        <c:axId val="2144154168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2081145656"/>
+        <c:axId val="2144164696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,12 +1747,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081137896"/>
+        <c:crossAx val="2144154168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081137896"/>
+        <c:axId val="2144154168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -1623,11 +1784,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081145656"/>
+        <c:crossAx val="2144164696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1960,11 +2121,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081101544"/>
-        <c:axId val="-2081094216"/>
+        <c:axId val="1776681752"/>
+        <c:axId val="2143441944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2081101544"/>
+        <c:axId val="1776681752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1993,12 +2154,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081094216"/>
+        <c:crossAx val="2143441944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081094216"/>
+        <c:axId val="2143441944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -2034,7 +2195,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081101544"/>
+        <c:crossAx val="1776681752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2367,11 +2528,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081270488"/>
-        <c:axId val="-2080716792"/>
+        <c:axId val="1776342328"/>
+        <c:axId val="1777978792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2081270488"/>
+        <c:axId val="1776342328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2400,12 +2561,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080716792"/>
+        <c:crossAx val="1777978792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2080716792"/>
+        <c:axId val="1777978792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -2441,7 +2602,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081270488"/>
+        <c:crossAx val="1776342328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2774,11 +2935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2080856856"/>
-        <c:axId val="-2080849528"/>
+        <c:axId val="2143907624"/>
+        <c:axId val="1776462824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2080856856"/>
+        <c:axId val="2143907624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,12 +2968,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080849528"/>
+        <c:crossAx val="1776462824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2080849528"/>
+        <c:axId val="1776462824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -2848,7 +3009,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080856856"/>
+        <c:crossAx val="2143907624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3181,11 +3342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2079993000"/>
-        <c:axId val="-2080699464"/>
+        <c:axId val="1777110232"/>
+        <c:axId val="2143654360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2079993000"/>
+        <c:axId val="1777110232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3214,12 +3375,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080699464"/>
+        <c:crossAx val="2143654360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2080699464"/>
+        <c:axId val="2143654360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -3255,7 +3416,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079993000"/>
+        <c:crossAx val="1777110232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3588,11 +3749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2082957688"/>
-        <c:axId val="-2086700600"/>
+        <c:axId val="1777227720"/>
+        <c:axId val="1777839848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2082957688"/>
+        <c:axId val="1777227720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3621,12 +3782,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086700600"/>
+        <c:crossAx val="1777839848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2086700600"/>
+        <c:axId val="1777839848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -3662,7 +3823,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2082957688"/>
+        <c:crossAx val="1777227720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3671,6 +3832,1576 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.175165419584983"/>
+          <c:y val="0.108351177730193"/>
+          <c:w val="0.807362204724409"/>
+          <c:h val="0.848080055303579"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>light readout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet4!$A$3:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>0.3384</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4034</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.4458</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.4675</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.4902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5353</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5821</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6057</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.6309</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.6769</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.7004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.7223</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.7457</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.7705</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.7945</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.836</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.8578</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.8814</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.9026</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.9256</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.9462</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.9667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.9892</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0149</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0338</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0569</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0737</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0951</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1163</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.1478</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.1911</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2165</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.2515</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2816</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.3134</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.3182</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.3206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2144720728"/>
+        <c:axId val="2144813560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2144720728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144813560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2144813560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144720728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0608323355823813"/>
+          <c:y val="0.126842837273992"/>
+          <c:w val="0.869670108320539"/>
+          <c:h val="0.802651977265012"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>weak 1204</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet4!$A$1:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>light step</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$D$2:$D$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.0387</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0416</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0464</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0481</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0518</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0535</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0552</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.0569</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.0586</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.0604</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.0621</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.0632</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.0649</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.0672</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.069</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.0707</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.0723</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.074</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.0756</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.0766</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.0784</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.0798</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.0822</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.0838</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.0844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.0859</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.0871</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.0888</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1793539976"/>
+        <c:axId val="1777715048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1793539976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1777715048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1777715048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1793539976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.530725987069148"/>
+          <c:y val="0.478350727716754"/>
+          <c:w val="0.254834902630178"/>
+          <c:h val="0.111726917306408"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>noise</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:strRef>
+              <c:f>Sheet4!$A$1:$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>light step</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet4!$G$2:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="0">
+                  <c:v>0.5625</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6561</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1449</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8281</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0404</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0816</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5776</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1881</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.4964</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.7396</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4884</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3225</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4336</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2996</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.3409</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.5476</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.002500000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4225</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.6561</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.3969</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1806303384"/>
+        <c:axId val="1810309160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1806303384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1810309160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1810309160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1806303384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Referred Differential Sigma Error </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>-25C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$3:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.645164227154606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.636396103067893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$8:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.635688996286706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.667084537371389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.636113260355418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.640497322398775</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>25C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.652942401747658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.650255395979149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.635406153574231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.660579154984473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.677125453664238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>50C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$18:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.668640172289999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.663407582109219</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.692964645562816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.678115403157899</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.698621499812309</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>75C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$23:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.702015612362004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.703005561855665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.704278354061801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.684479364188578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.673448498402068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1791272552"/>
+        <c:axId val="1778033704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1791272552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1778033704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1778033704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> (LSB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1791272552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3699,7 +5430,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4047,11 +5777,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081242568"/>
-        <c:axId val="-2081236808"/>
+        <c:axId val="2144547368"/>
+        <c:axId val="2145071928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2081242568"/>
+        <c:axId val="2144547368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="15.0"/>
@@ -4109,12 +5839,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081236808"/>
+        <c:crossAx val="2145071928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081236808"/>
+        <c:axId val="2145071928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -4172,7 +5902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2081242568"/>
+        <c:crossAx val="2144547368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4186,7 +5916,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4253,6 +5982,2841 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Referred Read Sigma Noise</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>-25C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42427494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4270023</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42461586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.41217228</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42632046</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$8:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4304115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45240084</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46723086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44694612</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45990108</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>25C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$13:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45240084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47404926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45376452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44455968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47950398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>50C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$18:$M$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.46382166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47404926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47490156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4883679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45325314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>75C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$23:$M$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.52348266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5079708</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49382262</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5011524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4849587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2095925624"/>
+        <c:axId val="2095766648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2095925624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095766648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2095766648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> (LSB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095925624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Referred Differential Sigma Error vs Voltage Scale @ Room Temperature</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.652942401747658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.650255395979149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.635406153574231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.660579154984473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.677125453664238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2144971432"/>
+        <c:axId val="1794413864"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2144971432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1794413864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1794413864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> (LSB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2144971432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Referred Differential Sigma Error vs Temperature @Voltage scale = 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0533762057877813"/>
+          <c:y val="0.216861219195849"/>
+          <c:w val="0.91521710509659"/>
+          <c:h val="0.644237057916399"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet5!$A$3,Sheet5!$A$8,Sheet5!$A$13,Sheet5!$A$18,Sheet5!$A$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet5!$F$5,Sheet5!$F$10,Sheet5!$F$15,Sheet5!$F$20,Sheet5!$F$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.636396103067893</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.667084537371389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.635406153574231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.692964645562816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.704278354061801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1793743256"/>
+        <c:axId val="1793271256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1793743256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="75.0"/>
+          <c:min val="-25.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1793271256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1793271256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> (LSB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1793743256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Referred Readout Sigma Noise vs Voltage Scale @ Room Temperature</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Input Referred Readout noise</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$13:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45240084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47404926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45376452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44455968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47950398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1794595272"/>
+        <c:axId val="1794508632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1794595272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1794508632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1794508632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> (LSB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1794595272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Referred Readout Sigma Noise vs Temperature @Voltage scale = 1</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0533762057877813"/>
+          <c:y val="0.216861219195849"/>
+          <c:w val="0.91521710509659"/>
+          <c:h val="0.644237057916399"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet5!$A$3,Sheet5!$A$8,Sheet5!$A$13,Sheet5!$A$18,Sheet5!$A$23)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>-25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>(Sheet5!$M$5,Sheet5!$M$10,Sheet5!$M$15,Sheet5!$M$20,Sheet5!$M$25)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.42461586</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.46723086</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45376452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47490156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49382262</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1793917752"/>
+        <c:axId val="1804956472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1793917752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="75.0"/>
+          <c:min val="-25.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Temperature</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1804956472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25.0"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1804956472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> (LSB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1793917752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Partial Settling Gain Variation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>-25C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$3:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$3:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.587751263665217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.613685179502915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>0C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$8:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$8:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>0.587061171774099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.605180343742435</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.628298567479266</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.645994832041344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>25C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="008000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.515942627179858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556483027267668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586647893934061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.608939227865059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62648790878336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>50C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$18:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$18:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.542269941977116</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.543124049532913</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.543242068665797</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.543478260869565</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.544276928101018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>75C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$23:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.490196078431372</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.527593120185713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.550176056338028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57780088981337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.594883997620464</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1806365256"/>
+        <c:axId val="1810219304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1806365256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1810219304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1810219304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.45"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Gain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1806365256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Input</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> Referred Differential Sigma Error vs Voltage Scale @ Room Temperature</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>chip1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$13:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.652942401747658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.650255395979149</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.635406153574231</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.660579154984473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.677125453664238</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>chip2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$31:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$F$31:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6687</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2095956776"/>
+        <c:axId val="2095984184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2095956776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095984184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2095984184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Error</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> (LSB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2095956776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Partial Settling Gain Variation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>chip1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="008000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.515942627179858</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.556483027267668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.586647893934061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.608939227865059</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62648790878336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>chip2</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$31:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$I$31:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.53134962805526</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.568828213879408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.596658711217184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.616979269496545</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.630994447248864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1790538344"/>
+        <c:axId val="1790479064"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1790538344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                  <a:t> Scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1790479064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1790479064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>Gain</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1790538344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800"/>
+              <a:t>Input Referred Readnoise</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2800" baseline="0"/>
+              <a:t> Across Chips @ Room Temperature</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="2800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>chip1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$31:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$13:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.45240084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47404926</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45376452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44455968</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47950398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>chip2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet5!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet5!$M$31:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.4284</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4307</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1810448104"/>
+        <c:axId val="1792209544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1810448104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1.1"/>
+          <c:min val="0.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000"/>
+                  <a:t>Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                  <a:t> Scale</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2000"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1792209544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1792209544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:t>Noise (LSB)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1810448104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -4288,7 +8852,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4585,11 +9148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081066696"/>
-        <c:axId val="-2081060872"/>
+        <c:axId val="2144862216"/>
+        <c:axId val="2144801752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2081066696"/>
+        <c:axId val="2144862216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,19 +9179,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081060872"/>
+        <c:crossAx val="2144801752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081060872"/>
+        <c:axId val="2144801752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -4657,14 +9219,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081066696"/>
+        <c:crossAx val="2144862216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4987,11 +9548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2080937368"/>
-        <c:axId val="2087729640"/>
+        <c:axId val="1777020616"/>
+        <c:axId val="2143880472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2080937368"/>
+        <c:axId val="1777020616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -5032,12 +9593,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087729640"/>
+        <c:crossAx val="2143880472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087729640"/>
+        <c:axId val="2143880472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -5078,7 +9639,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080937368"/>
+        <c:crossAx val="1777020616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5392,11 +9953,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125626808"/>
-        <c:axId val="-2079935896"/>
+        <c:axId val="1776730648"/>
+        <c:axId val="1776789864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125626808"/>
+        <c:axId val="1776730648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -5427,12 +9988,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079935896"/>
+        <c:crossAx val="1776789864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2079935896"/>
+        <c:axId val="1776789864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.35"/>
@@ -5468,7 +10029,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125626808"/>
+        <c:crossAx val="1776730648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5782,11 +10343,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2080907416"/>
-        <c:axId val="-2080961480"/>
+        <c:axId val="2143779896"/>
+        <c:axId val="2144203336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2080907416"/>
+        <c:axId val="2143779896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1"/>
@@ -5817,12 +10378,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080961480"/>
+        <c:crossAx val="2144203336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2080961480"/>
+        <c:axId val="2144203336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -5858,7 +10419,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080907416"/>
+        <c:crossAx val="2143779896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6278,11 +10839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081258568"/>
-        <c:axId val="-2080997176"/>
+        <c:axId val="1776516888"/>
+        <c:axId val="1777673304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2081258568"/>
+        <c:axId val="1776516888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6316,12 +10877,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080997176"/>
+        <c:crossAx val="1777673304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2080997176"/>
+        <c:axId val="1777673304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -6353,11 +10914,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081258568"/>
+        <c:crossAx val="1776516888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6777,11 +11338,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2085227256"/>
-        <c:axId val="-2085058088"/>
+        <c:axId val="1777052968"/>
+        <c:axId val="2143375656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2085227256"/>
+        <c:axId val="1777052968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6815,12 +11376,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085058088"/>
+        <c:crossAx val="2143375656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2085058088"/>
+        <c:axId val="2143375656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -6852,11 +11413,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2085227256"/>
+        <c:crossAx val="1777052968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7276,11 +11837,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2081200712"/>
-        <c:axId val="-2081192984"/>
+        <c:axId val="1776529768"/>
+        <c:axId val="1777293864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2081200712"/>
+        <c:axId val="1776529768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7314,12 +11875,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081192984"/>
+        <c:crossAx val="1777293864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2081192984"/>
+        <c:axId val="1777293864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -7351,11 +11912,11 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2081200712"/>
+        <c:crossAx val="1776529768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8968,6 +13529,422 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1193800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1041400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1003300</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9223,7 +14200,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9684,8 +14661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="E30" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11503,7 +16480,7 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -13310,6 +18287,4134 @@
       <c r="K91" s="14">
         <f>1/1.304</f>
         <v>0.76687116564417179</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K181"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="D2">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.75</v>
+      </c>
+      <c r="G2">
+        <f>E2^2</f>
+        <v>0.5625</v>
+      </c>
+      <c r="J2">
+        <v>0.74819999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.36180000000000001</v>
+      </c>
+      <c r="C3">
+        <f>B3-B2</f>
+        <v>2.3400000000000032E-2</v>
+      </c>
+      <c r="D3">
+        <v>4.0099999999999997E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.67</v>
+      </c>
+      <c r="F3">
+        <f>D3-D2</f>
+        <v>1.3999999999999985E-3</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G30" si="0">E3^2</f>
+        <v>0.44890000000000008</v>
+      </c>
+      <c r="H3">
+        <f>E3-E2</f>
+        <v>-7.999999999999996E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="K3">
+        <f>J3-J2</f>
+        <v>3.3399999999999985E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C45" si="1">B4-B3</f>
+        <v>2.0199999999999996E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.81</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F33" si="2">D4-D3</f>
+        <v>1.5000000000000013E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.65610000000000013</v>
+      </c>
+      <c r="H4">
+        <f>E4-E3</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J4">
+        <v>0.81850000000000001</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K22" si="3">J4-J3</f>
+        <v>3.6900000000000044E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.40339999999999998</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>2.1399999999999975E-2</v>
+      </c>
+      <c r="D5">
+        <v>4.3200000000000002E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.8</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000042E-3</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="H5">
+        <f>E5-E4</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>3.5499999999999976E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.42559999999999998</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.2199999999999998E-2</v>
+      </c>
+      <c r="D6">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.07</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>1.1449</v>
+      </c>
+      <c r="H6">
+        <f>E6-E5</f>
+        <v>0.27</v>
+      </c>
+      <c r="J6">
+        <v>0.89039999999999997</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>3.6399999999999988E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.44579999999999997</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>2.0199999999999996E-2</v>
+      </c>
+      <c r="D7">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="E7">
+        <v>0.91</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1.4999999999999944E-3</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.82810000000000006</v>
+      </c>
+      <c r="H7">
+        <f>E7-E6</f>
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="J7">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>3.4100000000000019E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>2.1700000000000053E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.02</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>1.0404</v>
+      </c>
+      <c r="H8">
+        <f>E8-E7</f>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.9627</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>3.8200000000000012E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.49020000000000002</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>2.2699999999999998E-2</v>
+      </c>
+      <c r="D9">
+        <v>4.9700000000000001E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.04</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000042E-3</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>1.0816000000000001</v>
+      </c>
+      <c r="H9">
+        <f>E9-E8</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.99590000000000001</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>3.3200000000000007E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2.2799999999999987E-2</v>
+      </c>
+      <c r="D10">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>0.76</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>2.0999999999999977E-3</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0.5776</v>
+      </c>
+      <c r="H10">
+        <f>E10-E9</f>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="J10">
+        <v>1.0288999999999999</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>3.2999999999999918E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.5353</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>2.2299999999999986E-2</v>
+      </c>
+      <c r="D11">
+        <v>5.3499999999999999E-2</v>
+      </c>
+      <c r="E11">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>1.1881000000000002</v>
+      </c>
+      <c r="H11">
+        <f>E11-E10</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="J11">
+        <v>1.0611999999999999</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>3.2299999999999995E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.5585</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.58</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2.4964000000000004</v>
+      </c>
+      <c r="H12">
+        <f>E12-E11</f>
+        <v>0.49</v>
+      </c>
+      <c r="J12">
+        <v>1.0942000000000001</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>3.300000000000014E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.58209999999999995</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>2.3599999999999954E-2</v>
+      </c>
+      <c r="D13">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.86</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0.73959999999999992</v>
+      </c>
+      <c r="H13">
+        <f>E13-E12</f>
+        <v>-0.72000000000000008</v>
+      </c>
+      <c r="J13">
+        <v>1.127</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>3.279999999999994E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.60570000000000002</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>2.3600000000000065E-2</v>
+      </c>
+      <c r="D14">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.22</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1.4883999999999999</v>
+      </c>
+      <c r="H14">
+        <f>E14-E13</f>
+        <v>0.36</v>
+      </c>
+      <c r="J14">
+        <v>1.1597</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>3.2699999999999951E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.63090000000000002</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>2.52E-2</v>
+      </c>
+      <c r="D15">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.800000000000003E-3</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>1.3224999999999998</v>
+      </c>
+      <c r="H15">
+        <f>E15-E14</f>
+        <v>-7.0000000000000062E-2</v>
+      </c>
+      <c r="J15">
+        <v>1.1926000000000001</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>3.2900000000000151E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.65249999999999997</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>2.1599999999999953E-2</v>
+      </c>
+      <c r="D16">
+        <v>6.2100000000000002E-2</v>
+      </c>
+      <c r="E16">
+        <v>1.56</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000001E-3</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2.4336000000000002</v>
+      </c>
+      <c r="H16">
+        <f>E16-E15</f>
+        <v>0.41000000000000014</v>
+      </c>
+      <c r="J16">
+        <v>1.2255</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>3.2899999999999929E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.67689999999999995</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>2.4399999999999977E-2</v>
+      </c>
+      <c r="D17">
+        <v>6.3200000000000006E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.04</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000038E-3</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>1.0816000000000001</v>
+      </c>
+      <c r="H17">
+        <f>E17-E16</f>
+        <v>-0.52</v>
+      </c>
+      <c r="J17">
+        <v>1.2581</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>3.2599999999999962E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.70040000000000002</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>2.3500000000000076E-2</v>
+      </c>
+      <c r="D18">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.51</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999932E-3</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0.2601</v>
+      </c>
+      <c r="H18">
+        <f>E18-E17</f>
+        <v>-0.53</v>
+      </c>
+      <c r="J18">
+        <v>1.2901</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.72230000000000005</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>2.1900000000000031E-2</v>
+      </c>
+      <c r="D19">
+        <v>6.7199999999999996E-2</v>
+      </c>
+      <c r="E19">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>2.2999999999999965E-3</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>1.2995999999999999</v>
+      </c>
+      <c r="H19">
+        <f>E19-E18</f>
+        <v>0.62999999999999989</v>
+      </c>
+      <c r="J19">
+        <v>1.3142</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>2.410000000000001E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>2.3399999999999976E-2</v>
+      </c>
+      <c r="D20">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.53</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000099E-3</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>2.3409</v>
+      </c>
+      <c r="H20">
+        <f>E20-E19</f>
+        <v>0.39000000000000012</v>
+      </c>
+      <c r="J20">
+        <v>1.3171999999999999</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>2.9999999999998916E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.77049999999999996</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>2.4799999999999933E-2</v>
+      </c>
+      <c r="D21">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.74</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999932E-3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="H21">
+        <f>E21-E20</f>
+        <v>-0.79</v>
+      </c>
+      <c r="J21">
+        <v>1.3142</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>-2.9999999999998916E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0.79449999999999998</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>2.4000000000000021E-2</v>
+      </c>
+      <c r="D22">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="E22">
+        <v>1.79</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000042E-3</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>3.2040999999999999</v>
+      </c>
+      <c r="H22">
+        <f>E22-E21</f>
+        <v>1.05</v>
+      </c>
+      <c r="J22">
+        <v>1.3118000000000001</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>-2.3999999999999577E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.8125</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>1.8000000000000016E-2</v>
+      </c>
+      <c r="D23">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1.6999999999999932E-3</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>1.2995999999999999</v>
+      </c>
+      <c r="H23">
+        <f>E23-E22</f>
+        <v>-0.65000000000000013</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>2.3499999999999965E-2</v>
+      </c>
+      <c r="D24">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000042E-3</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>6.0025000000000013</v>
+      </c>
+      <c r="H24">
+        <f>E24-E23</f>
+        <v>1.3100000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.85780000000000001</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>2.1800000000000042E-2</v>
+      </c>
+      <c r="D25">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.85</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>3.4225000000000003</v>
+      </c>
+      <c r="H25">
+        <f>E25-E24</f>
+        <v>-0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>2.3599999999999954E-2</v>
+      </c>
+      <c r="D26">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.81</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.799999999999996E-3</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0.65610000000000013</v>
+      </c>
+      <c r="H26">
+        <f>E26-E25</f>
+        <v>-1.04</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>2.1199999999999997E-2</v>
+      </c>
+      <c r="D27">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.63</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1.3999999999999985E-3</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0.39690000000000003</v>
+      </c>
+      <c r="H27">
+        <f>E27-E26</f>
+        <v>-0.18000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="D28">
+        <v>8.2199999999999995E-2</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>2.3999999999999994E-3</v>
+      </c>
+      <c r="H28">
+        <f>E28-E27</f>
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.94620000000000004</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>2.0600000000000063E-2</v>
+      </c>
+      <c r="D29">
+        <v>8.3799999999999999E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.78</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1.6000000000000042E-3</v>
+      </c>
+      <c r="H29">
+        <f>E29-E28</f>
+        <v>2.78</v>
+      </c>
+      <c r="J29" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9667</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>2.0499999999999963E-2</v>
+      </c>
+      <c r="D30">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="E30">
+        <v>1.56</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>6.0000000000000331E-4</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>2.4336000000000002</v>
+      </c>
+      <c r="H30">
+        <f>E30-E29</f>
+        <v>-1.2199999999999998</v>
+      </c>
+      <c r="J30" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>2.2499999999999964E-2</v>
+      </c>
+      <c r="D31">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="E31">
+        <v>1.2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>1.5000000000000013E-3</v>
+      </c>
+      <c r="H31">
+        <f>E31-E30</f>
+        <v>-0.3600000000000001</v>
+      </c>
+      <c r="J31" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1.0148999999999999</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>2.5699999999999945E-2</v>
+      </c>
+      <c r="D32">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>1.1999999999999927E-3</v>
+      </c>
+      <c r="H32">
+        <f>E32-E31</f>
+        <v>-1.2</v>
+      </c>
+      <c r="J32" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1.0338000000000001</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>1.8900000000000139E-2</v>
+      </c>
+      <c r="D33">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000071E-3</v>
+      </c>
+      <c r="H33">
+        <f>E33-E32</f>
+        <v>0</v>
+      </c>
+      <c r="J33" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1.0569</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>2.3099999999999898E-2</v>
+      </c>
+      <c r="J34" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1.0737000000000001</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>1.6800000000000148E-2</v>
+      </c>
+      <c r="J35" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>1.0951</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>2.1399999999999864E-2</v>
+      </c>
+      <c r="J36" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1.1163000000000001</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>2.1200000000000108E-2</v>
+      </c>
+      <c r="J37" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1.1477999999999999</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>3.1499999999999861E-2</v>
+      </c>
+      <c r="J38" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>1.1911</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>4.3300000000000116E-2</v>
+      </c>
+      <c r="J39" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>1.2164999999999999</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>2.5399999999999867E-2</v>
+      </c>
+      <c r="J40" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>1.2515000000000001</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>3.5000000000000142E-2</v>
+      </c>
+      <c r="J41" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>1.2816000000000001</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>3.0100000000000016E-2</v>
+      </c>
+      <c r="J42" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1.3133999999999999</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>3.1799999999999828E-2</v>
+      </c>
+      <c r="J43" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1.3182</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>4.8000000000001375E-3</v>
+      </c>
+      <c r="J44" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1.3206</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>2.3999999999999577E-3</v>
+      </c>
+      <c r="J45" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="J46" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="J47" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="J48" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="J49" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="J50" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="J51" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="J52" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <f>0.0017/1.78/0.00691*1.6E-19/0.001</f>
+        <v>2.2114180718385662E-17</v>
+      </c>
+      <c r="C53">
+        <f>11.2*1.6E-19/0.001</f>
+        <v>1.7919999999999999E-15</v>
+      </c>
+      <c r="J53" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="J54" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="J55" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="J56" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="J57" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="J58" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="J59" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="J60" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="J61" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="J62" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="J63" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="J64" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="10:11">
+      <c r="J65" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="10:11">
+      <c r="J66" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="10:11">
+      <c r="J67" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="10:11">
+      <c r="J68" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="10:11">
+      <c r="J69" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="10:11">
+      <c r="J70" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="10:11">
+      <c r="J71" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="10:11">
+      <c r="J72" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="10:11">
+      <c r="J73" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="10:11">
+      <c r="J74" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="10:11">
+      <c r="J75" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="10:11">
+      <c r="J76" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="10:11">
+      <c r="J77" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="10:11">
+      <c r="J78" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="10:11">
+      <c r="J79" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="10:11">
+      <c r="J80" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="10:11">
+      <c r="J81" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="10:11">
+      <c r="J82" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="10:11">
+      <c r="J83" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="10:11">
+      <c r="J84" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="10:11">
+      <c r="J85" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="10:11">
+      <c r="J86" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="10:11">
+      <c r="J87" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="10:11">
+      <c r="J88" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="10:11">
+      <c r="J89" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="10:11">
+      <c r="J90" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="10:11">
+      <c r="J91" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="10:11">
+      <c r="J92" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="10:11">
+      <c r="J93" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="10:11">
+      <c r="J94" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="10:11">
+      <c r="J95" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="10:11">
+      <c r="J96" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="10:11">
+      <c r="J97" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11">
+      <c r="J98" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="10:11">
+      <c r="J99" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11">
+      <c r="J100" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="10:11">
+      <c r="J101" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="10:11">
+      <c r="J102" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="10:11">
+      <c r="J103" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="10:11">
+      <c r="J104" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="10:11">
+      <c r="J105" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="10:11">
+      <c r="J106" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="10:11">
+      <c r="J107" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="10:11">
+      <c r="J108" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="10:11">
+      <c r="J109" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="10:11">
+      <c r="J110" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="10:11">
+      <c r="J111" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="10:11">
+      <c r="J112" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="10:11">
+      <c r="J113" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K113">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11">
+      <c r="J114" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="10:11">
+      <c r="J115" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K115">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11">
+      <c r="J116" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11">
+      <c r="J117" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11">
+      <c r="J118" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="10:11">
+      <c r="J119" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="10:11">
+      <c r="J120" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="10:11">
+      <c r="J121" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="10:11">
+      <c r="J122" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="10:11">
+      <c r="J123" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="10:11">
+      <c r="J124" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="10:11">
+      <c r="J125" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="10:11">
+      <c r="J126" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="10:11">
+      <c r="J127" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="10:11">
+      <c r="J128" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="10:11">
+      <c r="J129" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="10:11">
+      <c r="J130" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="10:11">
+      <c r="J131" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="10:11">
+      <c r="J132" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="10:11">
+      <c r="J133" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="10:11">
+      <c r="J134" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="10:11">
+      <c r="J135" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="10:11">
+      <c r="J136" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="10:11">
+      <c r="J137" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="10:11">
+      <c r="J138" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="10:11">
+      <c r="J139" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="10:11">
+      <c r="J140" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="10:11">
+      <c r="J141" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="10:11">
+      <c r="J142" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="10:11">
+      <c r="J143" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="10:11">
+      <c r="J144" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="10:11">
+      <c r="J145" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="10:11">
+      <c r="J146" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="10:11">
+      <c r="J147" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="10:11">
+      <c r="J148" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="10:11">
+      <c r="J149" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="10:11">
+      <c r="J150" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="10:11">
+      <c r="J151" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="10:11">
+      <c r="J152" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="10:11">
+      <c r="J153" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="10:11">
+      <c r="J154" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="10:11">
+      <c r="J155" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="10:11">
+      <c r="J156" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="10:11">
+      <c r="J157" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="10:11">
+      <c r="J158" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="10:11">
+      <c r="J159" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="10:11">
+      <c r="J160" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="10:11">
+      <c r="J161" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="10:11">
+      <c r="J162" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="10:11">
+      <c r="J163" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="10:11">
+      <c r="J164" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="10:11">
+      <c r="J165" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="10:11">
+      <c r="J166" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="10:11">
+      <c r="J167" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="10:11">
+      <c r="J168" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="10:11">
+      <c r="J169" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="10:11">
+      <c r="J170" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="10:11">
+      <c r="J171" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="10:11">
+      <c r="J172" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="10:11">
+      <c r="J173" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="10:11">
+      <c r="J174" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="10:11">
+      <c r="J175" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="10:11">
+      <c r="J176" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="10:11">
+      <c r="J177" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="10:11">
+      <c r="J178" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="10:11">
+      <c r="J179" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="10:11">
+      <c r="J180" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="10:11">
+      <c r="J181" t="e">
+        <f>320-#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K181">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="V99" sqref="V99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="19" customWidth="1"/>
+    <col min="2" max="5" width="10.83203125" style="19"/>
+    <col min="6" max="6" width="17.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="16" style="19" customWidth="1"/>
+    <col min="8" max="9" width="15.83203125" style="19" customWidth="1"/>
+    <col min="10" max="11" width="14.33203125" style="19" customWidth="1"/>
+    <col min="12" max="12" width="13" style="19" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="19" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="54">
+      <c r="A2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="24" customFormat="1">
+      <c r="A3" s="24">
+        <v>-25</v>
+      </c>
+      <c r="B3" s="24">
+        <v>0.9</v>
+      </c>
+      <c r="C3" s="24">
+        <f>1.8*B3</f>
+        <v>1.62</v>
+      </c>
+      <c r="D3" s="24">
+        <f>3.3*B3</f>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="E3" s="24">
+        <f>3.2*B3</f>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="K3" s="25">
+        <f>J3*1.7046</f>
+        <v>0.42461585999999996</v>
+      </c>
+      <c r="L3" s="25">
+        <v>0.24890000000000001</v>
+      </c>
+      <c r="M3" s="25">
+        <f>1.7046*L3</f>
+        <v>0.42427493999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="24" customFormat="1">
+      <c r="B4" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="C4" s="24">
+        <f t="shared" ref="C4:C7" si="0">1.8*B4</f>
+        <v>1.71</v>
+      </c>
+      <c r="D4" s="24">
+        <f t="shared" ref="D4:D27" si="1">3.3*B4</f>
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="E4" s="24">
+        <f t="shared" ref="E4:E27" si="2">3.2*B4</f>
+        <v>3.04</v>
+      </c>
+      <c r="F4" s="25">
+        <f>G4*SQRT(2)</f>
+        <v>0.64516422715460597</v>
+      </c>
+      <c r="G4" s="25">
+        <v>0.45619999999999999</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1.7014</v>
+      </c>
+      <c r="I4" s="25">
+        <f t="shared" ref="I4:I27" si="3">1/H4</f>
+        <v>0.58775126366521691</v>
+      </c>
+      <c r="J4" s="25">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="K4" s="25">
+        <f t="shared" ref="K4:K27" si="4">J4*1.7046</f>
+        <v>0.42546815999999993</v>
+      </c>
+      <c r="L4" s="25">
+        <v>0.2505</v>
+      </c>
+      <c r="M4" s="25">
+        <f t="shared" ref="M4:M27" si="5">1.7046*L4</f>
+        <v>0.4270023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="24" customFormat="1">
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="D5" s="24">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="F5" s="25">
+        <f t="shared" ref="F5:F27" si="6">G5*SQRT(2)</f>
+        <v>0.63639610306789285</v>
+      </c>
+      <c r="G5" s="25">
+        <v>0.45</v>
+      </c>
+      <c r="H5" s="25">
+        <v>1.6294999999999999</v>
+      </c>
+      <c r="I5" s="25">
+        <f t="shared" si="3"/>
+        <v>0.61368517950291501</v>
+      </c>
+      <c r="J5" s="25">
+        <v>0.2487</v>
+      </c>
+      <c r="K5" s="25">
+        <f t="shared" si="4"/>
+        <v>0.42393401999999997</v>
+      </c>
+      <c r="L5" s="25">
+        <v>0.24909999999999999</v>
+      </c>
+      <c r="M5" s="25">
+        <f t="shared" si="5"/>
+        <v>0.42461585999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="24" customFormat="1">
+      <c r="B6" s="24">
+        <v>1.05</v>
+      </c>
+      <c r="C6" s="24">
+        <f t="shared" si="0"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" si="1"/>
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="2"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25">
+        <v>0.2397</v>
+      </c>
+      <c r="K6" s="25">
+        <f t="shared" si="4"/>
+        <v>0.40859261999999996</v>
+      </c>
+      <c r="L6" s="25">
+        <v>0.24179999999999999</v>
+      </c>
+      <c r="M6" s="25">
+        <f t="shared" si="5"/>
+        <v>0.41217227999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="24" customFormat="1">
+      <c r="B7" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7" s="24">
+        <f t="shared" si="0"/>
+        <v>1.9800000000000002</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" si="1"/>
+        <v>3.63</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" si="2"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25">
+        <v>0.25330000000000003</v>
+      </c>
+      <c r="K7" s="25">
+        <f t="shared" si="4"/>
+        <v>0.43177518000000004</v>
+      </c>
+      <c r="L7" s="25">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="M7" s="25">
+        <f t="shared" si="5"/>
+        <v>0.42632045999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="26">
+        <v>0</v>
+      </c>
+      <c r="B8" s="26">
+        <v>0.9</v>
+      </c>
+      <c r="C8" s="26">
+        <f>1.8*B8</f>
+        <v>1.62</v>
+      </c>
+      <c r="D8" s="26">
+        <f t="shared" si="1"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="E8" s="26">
+        <f t="shared" si="2"/>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="27">
+        <v>0.25609999999999999</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" si="4"/>
+        <v>0.43654805999999996</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0.2525</v>
+      </c>
+      <c r="M8" s="27">
+        <f t="shared" si="5"/>
+        <v>0.4304115</v>
+      </c>
+      <c r="N8" s="21"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26">
+        <v>0.95</v>
+      </c>
+      <c r="C9" s="26">
+        <f t="shared" ref="C9:C27" si="7">1.8*B9</f>
+        <v>1.71</v>
+      </c>
+      <c r="D9" s="26">
+        <f t="shared" si="1"/>
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="E9" s="26">
+        <f t="shared" si="2"/>
+        <v>3.04</v>
+      </c>
+      <c r="F9" s="27">
+        <f t="shared" si="6"/>
+        <v>0.63568899628670628</v>
+      </c>
+      <c r="G9" s="27">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="H9" s="27">
+        <v>1.7034</v>
+      </c>
+      <c r="I9" s="27">
+        <f t="shared" si="3"/>
+        <v>0.58706117177409889</v>
+      </c>
+      <c r="J9" s="27">
+        <v>0.25219999999999998</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="4"/>
+        <v>0.42990011999999994</v>
+      </c>
+      <c r="L9" s="27">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="M9" s="27">
+        <f t="shared" si="5"/>
+        <v>0.45240084000000003</v>
+      </c>
+      <c r="N9" s="21"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="26">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="D10" s="26">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="E10" s="26">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="F10" s="27">
+        <f t="shared" si="6"/>
+        <v>0.66708453737138895</v>
+      </c>
+      <c r="G10" s="27">
+        <v>0.47170000000000001</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1.6524000000000001</v>
+      </c>
+      <c r="I10" s="27">
+        <f t="shared" si="3"/>
+        <v>0.60518034374243523</v>
+      </c>
+      <c r="J10" s="27">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" si="4"/>
+        <v>0.45990107999999996</v>
+      </c>
+      <c r="L10" s="27">
+        <v>0.27410000000000001</v>
+      </c>
+      <c r="M10" s="27">
+        <f t="shared" si="5"/>
+        <v>0.46723085999999997</v>
+      </c>
+      <c r="N10" s="21"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26">
+        <v>1.05</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="7"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="D11" s="26">
+        <f t="shared" si="1"/>
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="E11" s="26">
+        <f t="shared" si="2"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="6"/>
+        <v>0.63611326035541815</v>
+      </c>
+      <c r="G11" s="27">
+        <v>0.44979999999999998</v>
+      </c>
+      <c r="H11" s="27">
+        <v>1.5915999999999999</v>
+      </c>
+      <c r="I11" s="27">
+        <f t="shared" si="3"/>
+        <v>0.62829856747926616</v>
+      </c>
+      <c r="J11" s="27">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="K11" s="27">
+        <f t="shared" si="4"/>
+        <v>0.42734321999999991</v>
+      </c>
+      <c r="L11" s="27">
+        <v>0.26219999999999999</v>
+      </c>
+      <c r="M11" s="27">
+        <f t="shared" si="5"/>
+        <v>0.44694611999999995</v>
+      </c>
+      <c r="N11" s="21"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C12" s="26">
+        <f t="shared" si="7"/>
+        <v>1.9800000000000002</v>
+      </c>
+      <c r="D12" s="26">
+        <f t="shared" si="1"/>
+        <v>3.63</v>
+      </c>
+      <c r="E12" s="26">
+        <f t="shared" si="2"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="F12" s="27">
+        <f t="shared" si="6"/>
+        <v>0.64049732239877477</v>
+      </c>
+      <c r="G12" s="27">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="H12" s="27">
+        <v>1.548</v>
+      </c>
+      <c r="I12" s="27">
+        <f t="shared" si="3"/>
+        <v>0.64599483204134367</v>
+      </c>
+      <c r="J12" s="27">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="K12" s="27">
+        <f t="shared" si="4"/>
+        <v>0.39887640000000002</v>
+      </c>
+      <c r="L12" s="27">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="M12" s="27">
+        <f t="shared" si="5"/>
+        <v>0.45990107999999996</v>
+      </c>
+      <c r="N12" s="21"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="22">
+        <v>25</v>
+      </c>
+      <c r="B13" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="C13" s="22">
+        <f t="shared" si="7"/>
+        <v>1.62</v>
+      </c>
+      <c r="D13" s="22">
+        <f t="shared" si="1"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="E13" s="22">
+        <f t="shared" si="2"/>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="6"/>
+        <v>0.65294240174765805</v>
+      </c>
+      <c r="G13" s="23">
+        <v>0.4617</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1.9381999999999999</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="3"/>
+        <v>0.51594262717985762</v>
+      </c>
+      <c r="J13" s="23">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="4"/>
+        <v>0.45240084000000003</v>
+      </c>
+      <c r="L13" s="23">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="M13" s="23">
+        <f t="shared" si="5"/>
+        <v>0.45240084000000003</v>
+      </c>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="C14" s="22">
+        <f t="shared" si="7"/>
+        <v>1.71</v>
+      </c>
+      <c r="D14" s="22">
+        <f t="shared" si="1"/>
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="E14" s="22">
+        <f t="shared" si="2"/>
+        <v>3.04</v>
+      </c>
+      <c r="F14" s="23">
+        <f t="shared" si="6"/>
+        <v>0.65025539597914916</v>
+      </c>
+      <c r="G14" s="23">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="H14" s="23">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="I14" s="23">
+        <f t="shared" si="3"/>
+        <v>0.55648302726766841</v>
+      </c>
+      <c r="J14" s="23">
+        <v>0.26429999999999998</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" si="4"/>
+        <v>0.45052577999999993</v>
+      </c>
+      <c r="L14" s="23">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="M14" s="23">
+        <f t="shared" si="5"/>
+        <v>0.47404925999999997</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="22">
+        <v>1</v>
+      </c>
+      <c r="C15" s="22">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="D15" s="22">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="E15" s="22">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="F15" s="23">
+        <f t="shared" si="6"/>
+        <v>0.63540615357423158</v>
+      </c>
+      <c r="G15" s="23">
+        <v>0.44929999999999998</v>
+      </c>
+      <c r="H15" s="23">
+        <v>1.7045999999999999</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" si="3"/>
+        <v>0.5866478939340608</v>
+      </c>
+      <c r="J15" s="23">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="4"/>
+        <v>0.43245701999999991</v>
+      </c>
+      <c r="L15" s="23">
+        <v>0.26619999999999999</v>
+      </c>
+      <c r="M15" s="23">
+        <f t="shared" si="5"/>
+        <v>0.45376451999999995</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="C16" s="22">
+        <f t="shared" si="7"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="D16" s="22">
+        <f t="shared" si="1"/>
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="E16" s="22">
+        <f t="shared" si="2"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" si="6"/>
+        <v>0.66057915498447273</v>
+      </c>
+      <c r="G16" s="23">
+        <v>0.46710000000000002</v>
+      </c>
+      <c r="H16" s="23">
+        <v>1.6422000000000001</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="3"/>
+        <v>0.60893922786505905</v>
+      </c>
+      <c r="J16" s="23">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="4"/>
+        <v>0.44353691999999995</v>
+      </c>
+      <c r="L16" s="23">
+        <v>0.26079999999999998</v>
+      </c>
+      <c r="M16" s="23">
+        <f t="shared" si="5"/>
+        <v>0.44455967999999996</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C17" s="22">
+        <f t="shared" si="7"/>
+        <v>1.9800000000000002</v>
+      </c>
+      <c r="D17" s="22">
+        <f t="shared" si="1"/>
+        <v>3.63</v>
+      </c>
+      <c r="E17" s="22">
+        <f t="shared" si="2"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="6"/>
+        <v>0.67712545366423793</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0.4788</v>
+      </c>
+      <c r="H17" s="23">
+        <v>1.5962000000000001</v>
+      </c>
+      <c r="I17" s="23">
+        <f t="shared" si="3"/>
+        <v>0.62648790878336047</v>
+      </c>
+      <c r="J17" s="23">
+        <v>0.26350000000000001</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="4"/>
+        <v>0.44916210000000001</v>
+      </c>
+      <c r="L17" s="23">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="M17" s="23">
+        <f t="shared" si="5"/>
+        <v>0.47950397999999994</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="31">
+        <v>50</v>
+      </c>
+      <c r="B18" s="31">
+        <v>0.9</v>
+      </c>
+      <c r="C18" s="31">
+        <f t="shared" si="7"/>
+        <v>1.62</v>
+      </c>
+      <c r="D18" s="31">
+        <f t="shared" si="1"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" si="2"/>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="F18" s="32">
+        <f t="shared" si="6"/>
+        <v>0.66864017228999939</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0.4728</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1.8441000000000001</v>
+      </c>
+      <c r="I18" s="32">
+        <f t="shared" si="3"/>
+        <v>0.5422699419771162</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0.2382</v>
+      </c>
+      <c r="K18" s="32">
+        <f t="shared" si="4"/>
+        <v>0.40603571999999999</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0.27210000000000001</v>
+      </c>
+      <c r="M18" s="32">
+        <f t="shared" si="5"/>
+        <v>0.46382165999999997</v>
+      </c>
+      <c r="N18" s="28"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31">
+        <v>0.95</v>
+      </c>
+      <c r="C19" s="31">
+        <f t="shared" si="7"/>
+        <v>1.71</v>
+      </c>
+      <c r="D19" s="31">
+        <f t="shared" si="1"/>
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="E19" s="31">
+        <f t="shared" si="2"/>
+        <v>3.04</v>
+      </c>
+      <c r="F19" s="32">
+        <f t="shared" si="6"/>
+        <v>0.66340758210921891</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0.46910000000000002</v>
+      </c>
+      <c r="H19" s="32">
+        <v>1.8411999999999999</v>
+      </c>
+      <c r="I19" s="32">
+        <f t="shared" si="3"/>
+        <v>0.54312404953291338</v>
+      </c>
+      <c r="J19" s="32">
+        <v>0.27329999999999999</v>
+      </c>
+      <c r="K19" s="32">
+        <f t="shared" si="4"/>
+        <v>0.46586717999999994</v>
+      </c>
+      <c r="L19" s="32">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="M19" s="32">
+        <f t="shared" si="5"/>
+        <v>0.47404925999999997</v>
+      </c>
+      <c r="N19" s="28"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="31"/>
+      <c r="B20" s="31">
+        <v>1</v>
+      </c>
+      <c r="C20" s="31">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="D20" s="31">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="E20" s="31">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="F20" s="32">
+        <f t="shared" si="6"/>
+        <v>0.69296464556281656</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0.49</v>
+      </c>
+      <c r="H20" s="32">
+        <v>1.8408</v>
+      </c>
+      <c r="I20" s="32">
+        <f t="shared" si="3"/>
+        <v>0.5432420686657975</v>
+      </c>
+      <c r="J20" s="32">
+        <v>0.26989999999999997</v>
+      </c>
+      <c r="K20" s="32">
+        <f t="shared" si="4"/>
+        <v>0.46007153999999995</v>
+      </c>
+      <c r="L20" s="32">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="M20" s="32">
+        <f t="shared" si="5"/>
+        <v>0.47490156</v>
+      </c>
+      <c r="N20" s="28"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="31"/>
+      <c r="B21" s="31">
+        <v>1.05</v>
+      </c>
+      <c r="C21" s="31">
+        <f t="shared" si="7"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="D21" s="31">
+        <f t="shared" si="1"/>
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="E21" s="31">
+        <f t="shared" si="2"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="F21" s="32">
+        <f t="shared" si="6"/>
+        <v>0.67811540315789909</v>
+      </c>
+      <c r="G21" s="32">
+        <v>0.47949999999999998</v>
+      </c>
+      <c r="H21" s="32">
+        <v>1.84</v>
+      </c>
+      <c r="I21" s="32">
+        <f t="shared" si="3"/>
+        <v>0.54347826086956519</v>
+      </c>
+      <c r="J21" s="32">
+        <v>0.24540000000000001</v>
+      </c>
+      <c r="K21" s="32">
+        <f t="shared" si="4"/>
+        <v>0.41830883999999996</v>
+      </c>
+      <c r="L21" s="32">
+        <v>0.28649999999999998</v>
+      </c>
+      <c r="M21" s="32">
+        <f t="shared" si="5"/>
+        <v>0.48836789999999991</v>
+      </c>
+      <c r="N21" s="28"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C22" s="31">
+        <f t="shared" si="7"/>
+        <v>1.9800000000000002</v>
+      </c>
+      <c r="D22" s="31">
+        <f t="shared" si="1"/>
+        <v>3.63</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="2"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="F22" s="32">
+        <f t="shared" si="6"/>
+        <v>0.69862149981230903</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H22" s="32">
+        <v>1.8372999999999999</v>
+      </c>
+      <c r="I22" s="32">
+        <f t="shared" si="3"/>
+        <v>0.5442769281010178</v>
+      </c>
+      <c r="J22" s="32">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="K22" s="32">
+        <f t="shared" si="4"/>
+        <v>0.43842311999999994</v>
+      </c>
+      <c r="L22" s="32">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="M22" s="32">
+        <f t="shared" si="5"/>
+        <v>0.45325314</v>
+      </c>
+      <c r="N22" s="28"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="29">
+        <v>75</v>
+      </c>
+      <c r="B23" s="29">
+        <v>0.9</v>
+      </c>
+      <c r="C23" s="29">
+        <f t="shared" si="7"/>
+        <v>1.62</v>
+      </c>
+      <c r="D23" s="29">
+        <f t="shared" si="1"/>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="E23" s="29">
+        <f t="shared" si="2"/>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="F23" s="30">
+        <f t="shared" si="6"/>
+        <v>0.70201561236200449</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0.49640000000000001</v>
+      </c>
+      <c r="H23" s="30">
+        <v>2.04</v>
+      </c>
+      <c r="I23" s="30">
+        <f t="shared" si="3"/>
+        <v>0.49019607843137253</v>
+      </c>
+      <c r="J23" s="30">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="K23" s="30">
+        <f t="shared" si="4"/>
+        <v>0.47387879999999999</v>
+      </c>
+      <c r="L23" s="30">
+        <v>0.30709999999999998</v>
+      </c>
+      <c r="M23" s="30">
+        <f t="shared" si="5"/>
+        <v>0.52348265999999999</v>
+      </c>
+      <c r="N23" s="29"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="C24" s="29">
+        <f t="shared" si="7"/>
+        <v>1.71</v>
+      </c>
+      <c r="D24" s="29">
+        <f t="shared" si="1"/>
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="E24" s="29">
+        <f t="shared" si="2"/>
+        <v>3.04</v>
+      </c>
+      <c r="F24" s="30">
+        <f t="shared" si="6"/>
+        <v>0.70300556185566554</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0.49709999999999999</v>
+      </c>
+      <c r="H24" s="30">
+        <v>1.8954</v>
+      </c>
+      <c r="I24" s="30">
+        <f t="shared" si="3"/>
+        <v>0.52759312018571281</v>
+      </c>
+      <c r="J24" s="30">
+        <v>0.29730000000000001</v>
+      </c>
+      <c r="K24" s="30">
+        <f t="shared" si="4"/>
+        <v>0.50677757999999995</v>
+      </c>
+      <c r="L24" s="30">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="M24" s="30">
+        <f t="shared" si="5"/>
+        <v>0.50797079999999994</v>
+      </c>
+      <c r="N24" s="29"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29">
+        <v>1</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" si="7"/>
+        <v>1.8</v>
+      </c>
+      <c r="D25" s="29">
+        <f t="shared" si="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="E25" s="29">
+        <f t="shared" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="F25" s="30">
+        <f t="shared" si="6"/>
+        <v>0.70427835406180139</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0.498</v>
+      </c>
+      <c r="H25" s="30">
+        <v>1.8176000000000001</v>
+      </c>
+      <c r="I25" s="30">
+        <f t="shared" si="3"/>
+        <v>0.55017605633802813</v>
+      </c>
+      <c r="J25" s="30">
+        <v>0.27039999999999997</v>
+      </c>
+      <c r="K25" s="30">
+        <f t="shared" si="4"/>
+        <v>0.46092383999999992</v>
+      </c>
+      <c r="L25" s="30">
+        <v>0.28970000000000001</v>
+      </c>
+      <c r="M25" s="30">
+        <f t="shared" si="5"/>
+        <v>0.49382261999999999</v>
+      </c>
+      <c r="N25" s="29"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29">
+        <v>1.05</v>
+      </c>
+      <c r="C26" s="29">
+        <f t="shared" si="7"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="D26" s="29">
+        <f t="shared" si="1"/>
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="E26" s="29">
+        <f t="shared" si="2"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="F26" s="30">
+        <f t="shared" si="6"/>
+        <v>0.68447936418857802</v>
+      </c>
+      <c r="G26" s="30">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H26" s="30">
+        <v>1.7306999999999999</v>
+      </c>
+      <c r="I26" s="30">
+        <f t="shared" si="3"/>
+        <v>0.5778008898133703</v>
+      </c>
+      <c r="J26" s="30">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K26" s="30">
+        <f t="shared" si="4"/>
+        <v>0.45171899999999998</v>
+      </c>
+      <c r="L26" s="30">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="M26" s="30">
+        <f t="shared" si="5"/>
+        <v>0.50115239999999994</v>
+      </c>
+      <c r="N26" s="29"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C27" s="29">
+        <f t="shared" si="7"/>
+        <v>1.9800000000000002</v>
+      </c>
+      <c r="D27" s="29">
+        <f t="shared" si="1"/>
+        <v>3.63</v>
+      </c>
+      <c r="E27" s="29">
+        <f t="shared" si="2"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="F27" s="30">
+        <f t="shared" si="6"/>
+        <v>0.67344849840206789</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="H27" s="30">
+        <v>1.681</v>
+      </c>
+      <c r="I27" s="30">
+        <f t="shared" si="3"/>
+        <v>0.59488399762046396</v>
+      </c>
+      <c r="J27" s="30">
+        <v>0.26140000000000002</v>
+      </c>
+      <c r="K27" s="30">
+        <f t="shared" si="4"/>
+        <v>0.44558244000000002</v>
+      </c>
+      <c r="L27" s="30">
+        <v>0.28449999999999998</v>
+      </c>
+      <c r="M27" s="30">
+        <f t="shared" si="5"/>
+        <v>0.48495869999999991</v>
+      </c>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="29"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:15" ht="54">
+      <c r="A30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M30" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="22">
+        <v>25</v>
+      </c>
+      <c r="B31" s="22">
+        <v>0.9</v>
+      </c>
+      <c r="C31" s="22">
+        <f>1.8*B31</f>
+        <v>1.62</v>
+      </c>
+      <c r="D31" s="22">
+        <f>3.3*B31</f>
+        <v>2.9699999999999998</v>
+      </c>
+      <c r="E31" s="22">
+        <f>3.2*B31</f>
+        <v>2.8800000000000003</v>
+      </c>
+      <c r="F31" s="23">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="G31" s="23">
+        <f>F31/SQRT(2)</f>
+        <v>0.47164022305142717</v>
+      </c>
+      <c r="H31" s="23">
+        <v>1.8819999999999999</v>
+      </c>
+      <c r="I31" s="23">
+        <f>1/H31</f>
+        <v>0.53134962805526043</v>
+      </c>
+      <c r="J31" s="23">
+        <v>0.2387</v>
+      </c>
+      <c r="K31" s="23">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="L31" s="23">
+        <v>0.25559999999999999</v>
+      </c>
+      <c r="M31" s="23">
+        <v>0.4284</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22">
+        <v>0.95</v>
+      </c>
+      <c r="C32" s="22">
+        <f t="shared" ref="C32:C35" si="8">1.8*B32</f>
+        <v>1.71</v>
+      </c>
+      <c r="D32" s="22">
+        <f t="shared" ref="D32:D35" si="9">3.3*B32</f>
+        <v>3.1349999999999998</v>
+      </c>
+      <c r="E32" s="22">
+        <f t="shared" ref="E32:E35" si="10">3.2*B32</f>
+        <v>3.04</v>
+      </c>
+      <c r="F32" s="23">
+        <v>0.65980000000000005</v>
+      </c>
+      <c r="G32" s="23">
+        <f t="shared" ref="G32:G35" si="11">F32/SQRT(2)</f>
+        <v>0.46654905422688409</v>
+      </c>
+      <c r="H32" s="23">
+        <v>1.758</v>
+      </c>
+      <c r="I32" s="23">
+        <f t="shared" ref="I32:I35" si="12">1/H32</f>
+        <v>0.56882821387940841</v>
+      </c>
+      <c r="J32" s="23">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="K32" s="23">
+        <v>0.42070000000000002</v>
+      </c>
+      <c r="L32" s="23">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0.42070000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22">
+        <v>1</v>
+      </c>
+      <c r="C33" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8</v>
+      </c>
+      <c r="D33" s="22">
+        <f t="shared" si="9"/>
+        <v>3.3</v>
+      </c>
+      <c r="E33" s="22">
+        <f t="shared" si="10"/>
+        <v>3.2</v>
+      </c>
+      <c r="F33" s="23">
+        <v>0.66869999999999996</v>
+      </c>
+      <c r="G33" s="23">
+        <f t="shared" si="11"/>
+        <v>0.47284230457944426</v>
+      </c>
+      <c r="H33" s="23">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="I33" s="23">
+        <f t="shared" si="12"/>
+        <v>0.59665871121718383</v>
+      </c>
+      <c r="J33" s="23">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="K33" s="23">
+        <v>0.43840000000000001</v>
+      </c>
+      <c r="L33" s="23">
+        <v>0.26290000000000002</v>
+      </c>
+      <c r="M33" s="23">
+        <v>0.44059999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22">
+        <v>1.05</v>
+      </c>
+      <c r="C34" s="22">
+        <f t="shared" si="8"/>
+        <v>1.8900000000000001</v>
+      </c>
+      <c r="D34" s="22">
+        <f t="shared" si="9"/>
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="E34" s="22">
+        <f t="shared" si="10"/>
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="F34" s="23">
+        <v>0.65949999999999998</v>
+      </c>
+      <c r="G34" s="23">
+        <f t="shared" si="11"/>
+        <v>0.46633692219252804</v>
+      </c>
+      <c r="H34" s="23">
+        <v>1.6208</v>
+      </c>
+      <c r="I34" s="23">
+        <f t="shared" si="12"/>
+        <v>0.61697926949654491</v>
+      </c>
+      <c r="J34" s="23">
+        <v>0.2591</v>
+      </c>
+      <c r="K34" s="23">
+        <v>0.43430000000000002</v>
+      </c>
+      <c r="L34" s="23">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="M34" s="23">
+        <v>0.43070000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C35" s="22">
+        <f t="shared" si="8"/>
+        <v>1.9800000000000002</v>
+      </c>
+      <c r="D35" s="22">
+        <f t="shared" si="9"/>
+        <v>3.63</v>
+      </c>
+      <c r="E35" s="22">
+        <f t="shared" si="10"/>
+        <v>3.5200000000000005</v>
+      </c>
+      <c r="F35" s="23">
+        <v>0.64459999999999995</v>
+      </c>
+      <c r="G35" s="23">
+        <f t="shared" si="11"/>
+        <v>0.45580103115284848</v>
+      </c>
+      <c r="H35" s="23">
+        <v>1.5848</v>
+      </c>
+      <c r="I35" s="23">
+        <f t="shared" si="12"/>
+        <v>0.63099444724886422</v>
+      </c>
+      <c r="J35" s="23">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="K35" s="23">
+        <v>0.4194</v>
+      </c>
+      <c r="L35" s="23">
+        <v>0.26769999999999999</v>
+      </c>
+      <c r="M35" s="23">
+        <v>0.4486</v>
       </c>
     </row>
   </sheetData>
